--- a/근전도센서 분석.xlsx
+++ b/근전도센서 분석.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\2022 4학년 1학기\소프트웨어융합캡스톤디자인\제출보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\NewMeta_HapticGloves\Metaverse_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC273D-14DF-4E5D-B91D-5C34029541EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225776CB-74D4-408C-A7CF-6A477E29A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="72">
   <si>
     <t xml:space="preserve">4. 동일한 Task를 했을 때 평균값 </t>
   </si>
@@ -266,6 +266,25 @@
     <t>고준성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>빨간 네모 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 네모 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 세모 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 세모 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햅틱디바이스</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -609,6 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -889,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV197"/>
+  <dimension ref="A1:AV215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -906,6 +932,7 @@
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1060,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:48">
+    <row r="35" spans="2:48">
       <c r="C35" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="3:48">
+    <row r="36" spans="2:48">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:48">
+    <row r="37" spans="2:48">
       <c r="D37" t="s">
         <v>20</v>
       </c>
@@ -1105,12 +1132,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="3:48">
+    <row r="38" spans="2:48">
       <c r="D38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:48">
+    <row r="39" spans="2:48">
       <c r="D39" t="s">
         <v>22</v>
       </c>
@@ -1118,13 +1145,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:48">
+    <row r="40" spans="2:48">
       <c r="N40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="3:48" ht="17.25" thickBot="1"/>
-    <row r="45" spans="3:48">
+    <row r="44" spans="2:48" ht="17.25" thickBot="1">
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="2:48">
+      <c r="B45" s="26"/>
       <c r="C45" s="2" t="s">
         <v>62</v>
       </c>
@@ -1252,7 +1296,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="3:48">
+    <row r="46" spans="2:48">
+      <c r="B46" s="26"/>
       <c r="C46" s="13" t="s">
         <v>48</v>
       </c>
@@ -1344,7 +1389,8 @@
       </c>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="3:48">
+    <row r="47" spans="2:48">
+      <c r="B47" s="26"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
         <v>30</v>
@@ -1394,7 +1440,8 @@
       <c r="AU47" s="14"/>
       <c r="AV47" s="15"/>
     </row>
-    <row r="48" spans="3:48">
+    <row r="48" spans="2:48">
+      <c r="B48" s="26"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
         <v>31</v>
@@ -1444,7 +1491,8 @@
       <c r="AU48" s="14"/>
       <c r="AV48" s="15"/>
     </row>
-    <row r="49" spans="3:48">
+    <row r="49" spans="2:48">
+      <c r="B49" s="26"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="11"/>
@@ -1488,7 +1536,8 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" spans="3:48" ht="66.75" thickBot="1">
+    <row r="50" spans="2:48" ht="66.75" thickBot="1">
+      <c r="B50" s="26"/>
       <c r="C50" s="16" t="s">
         <v>49</v>
       </c>
@@ -1580,7 +1629,8 @@
       </c>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="3:48">
+    <row r="51" spans="2:48">
+      <c r="B51" s="26"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14" t="s">
         <v>46</v>
@@ -1630,7 +1680,8 @@
       <c r="AU51" s="14"/>
       <c r="AV51" s="15"/>
     </row>
-    <row r="52" spans="3:48">
+    <row r="52" spans="2:48">
+      <c r="B52" s="26"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
         <v>47</v>
@@ -1680,7 +1731,8 @@
       <c r="AU52" s="14"/>
       <c r="AV52" s="15"/>
     </row>
-    <row r="53" spans="3:48">
+    <row r="53" spans="2:48">
+      <c r="B53" s="26"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="11"/>
@@ -1724,7 +1776,8 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="3:48">
+    <row r="54" spans="2:48">
+      <c r="B54" s="26"/>
       <c r="C54" s="5" t="s">
         <v>48</v>
       </c>
@@ -1774,7 +1827,8 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="3:48" ht="17.25" thickBot="1">
+    <row r="55" spans="2:48" ht="17.25" thickBot="1">
+      <c r="B55" s="26"/>
       <c r="C55" s="7" t="s">
         <v>49</v>
       </c>
@@ -1824,8 +1878,14 @@
       <c r="AU55" s="8"/>
       <c r="AV55" s="9"/>
     </row>
-    <row r="57" spans="3:48" ht="17.25" thickBot="1"/>
-    <row r="58" spans="3:48">
+    <row r="56" spans="2:48">
+      <c r="B56" s="26"/>
+    </row>
+    <row r="57" spans="2:48" ht="17.25" thickBot="1">
+      <c r="B57" s="26"/>
+    </row>
+    <row r="58" spans="2:48">
+      <c r="B58" s="26"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1944,7 +2004,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="3:48">
+    <row r="59" spans="2:48">
+      <c r="B59" s="26"/>
       <c r="C59" s="13" t="s">
         <v>48</v>
       </c>
@@ -2003,7 +2064,8 @@
       <c r="AT59" s="18"/>
       <c r="AU59" s="22"/>
     </row>
-    <row r="60" spans="3:48">
+    <row r="60" spans="2:48">
+      <c r="B60" s="26"/>
       <c r="C60" s="13"/>
       <c r="D60" s="21" t="s">
         <v>30</v>
@@ -2050,7 +2112,8 @@
       <c r="AT60" s="18"/>
       <c r="AU60" s="22"/>
     </row>
-    <row r="61" spans="3:48">
+    <row r="61" spans="2:48">
+      <c r="B61" s="26"/>
       <c r="C61" s="13"/>
       <c r="D61" s="21" t="s">
         <v>31</v>
@@ -2097,7 +2160,8 @@
       <c r="AT61" s="18"/>
       <c r="AU61" s="22"/>
     </row>
-    <row r="62" spans="3:48">
+    <row r="62" spans="2:48">
+      <c r="B62" s="26"/>
       <c r="C62" s="5"/>
       <c r="D62" s="21"/>
       <c r="E62" s="18"/>
@@ -2138,12 +2202,13 @@
       <c r="AT62" s="18"/>
       <c r="AU62" s="22"/>
     </row>
-    <row r="63" spans="3:48" ht="17.25" thickBot="1">
+    <row r="63" spans="2:48" ht="17.25" thickBot="1">
+      <c r="B63" s="26"/>
       <c r="C63" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>37</v>
@@ -2162,7 +2227,7 @@
         <v>49</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U63" s="18" t="s">
         <v>37</v>
@@ -2197,10 +2262,11 @@
       <c r="AT63" s="18"/>
       <c r="AU63" s="22"/>
     </row>
-    <row r="64" spans="3:48">
+    <row r="64" spans="2:48">
+      <c r="B64" s="26"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="21" t="s">
-        <v>46</v>
+      <c r="D64" t="s">
+        <v>68</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -2214,8 +2280,8 @@
       <c r="N64" s="18"/>
       <c r="O64" s="22"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="21" t="s">
-        <v>46</v>
+      <c r="T64" t="s">
+        <v>68</v>
       </c>
       <c r="U64" s="18"/>
       <c r="V64" s="18"/>
@@ -2244,10 +2310,11 @@
       <c r="AT64" s="18"/>
       <c r="AU64" s="22"/>
     </row>
-    <row r="65" spans="3:47">
+    <row r="65" spans="2:47">
+      <c r="B65" s="26"/>
       <c r="C65" s="13"/>
       <c r="D65" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -2262,7 +2329,7 @@
       <c r="O65" s="22"/>
       <c r="S65" s="13"/>
       <c r="T65" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U65" s="18"/>
       <c r="V65" s="18"/>
@@ -2291,9 +2358,12 @@
       <c r="AT65" s="18"/>
       <c r="AU65" s="22"/>
     </row>
-    <row r="66" spans="3:47">
+    <row r="66" spans="2:47">
+      <c r="B66" s="26"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="21"/>
+      <c r="D66" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -2306,7 +2376,9 @@
       <c r="N66" s="18"/>
       <c r="O66" s="22"/>
       <c r="S66" s="5"/>
-      <c r="T66" s="21"/>
+      <c r="T66" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="U66" s="18"/>
       <c r="V66" s="18"/>
       <c r="W66" s="18"/>
@@ -2332,7 +2404,8 @@
       <c r="AT66" s="18"/>
       <c r="AU66" s="22"/>
     </row>
-    <row r="67" spans="3:47">
+    <row r="67" spans="2:47">
+      <c r="B67" s="26"/>
       <c r="C67" s="5" t="s">
         <v>48</v>
       </c>
@@ -2379,7 +2452,8 @@
       <c r="AT67" s="18"/>
       <c r="AU67" s="22"/>
     </row>
-    <row r="68" spans="3:47" ht="17.25" thickBot="1">
+    <row r="68" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B68" s="26"/>
       <c r="C68" s="7" t="s">
         <v>49</v>
       </c>
@@ -2426,8 +2500,11 @@
       <c r="AT68" s="24"/>
       <c r="AU68" s="25"/>
     </row>
-    <row r="69" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="70" spans="3:47">
+    <row r="69" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B69" s="26"/>
+    </row>
+    <row r="70" spans="2:47">
+      <c r="B70" s="26"/>
       <c r="C70" s="2" t="s">
         <v>62</v>
       </c>
@@ -2546,7 +2623,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="3:47">
+    <row r="71" spans="2:47">
+      <c r="B71" s="26"/>
       <c r="C71" s="13" t="s">
         <v>48</v>
       </c>
@@ -2605,7 +2683,8 @@
       <c r="AT71" s="18"/>
       <c r="AU71" s="22"/>
     </row>
-    <row r="72" spans="3:47">
+    <row r="72" spans="2:47">
+      <c r="B72" s="26"/>
       <c r="C72" s="13"/>
       <c r="D72" s="21" t="s">
         <v>30</v>
@@ -2652,7 +2731,8 @@
       <c r="AT72" s="18"/>
       <c r="AU72" s="22"/>
     </row>
-    <row r="73" spans="3:47">
+    <row r="73" spans="2:47">
+      <c r="B73" s="26"/>
       <c r="C73" s="13"/>
       <c r="D73" s="21" t="s">
         <v>31</v>
@@ -2699,7 +2779,8 @@
       <c r="AT73" s="18"/>
       <c r="AU73" s="22"/>
     </row>
-    <row r="74" spans="3:47">
+    <row r="74" spans="2:47">
+      <c r="B74" s="26"/>
       <c r="C74" s="5"/>
       <c r="D74" s="21"/>
       <c r="E74" s="1"/>
@@ -2740,12 +2821,13 @@
       <c r="AT74" s="18"/>
       <c r="AU74" s="22"/>
     </row>
-    <row r="75" spans="3:47" ht="17.25" thickBot="1">
+    <row r="75" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B75" s="26"/>
       <c r="C75" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>38</v>
@@ -2764,7 +2846,7 @@
         <v>49</v>
       </c>
       <c r="T75" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U75" s="14" t="s">
         <v>38</v>
@@ -2799,10 +2881,11 @@
       <c r="AT75" s="18"/>
       <c r="AU75" s="22"/>
     </row>
-    <row r="76" spans="3:47">
+    <row r="76" spans="2:47">
+      <c r="B76" s="26"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="21" t="s">
-        <v>46</v>
+      <c r="D76" t="s">
+        <v>68</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="18"/>
@@ -2816,8 +2899,8 @@
       <c r="N76" s="18"/>
       <c r="O76" s="22"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="21" t="s">
-        <v>46</v>
+      <c r="T76" t="s">
+        <v>68</v>
       </c>
       <c r="U76" s="14"/>
       <c r="V76" s="18"/>
@@ -2846,10 +2929,11 @@
       <c r="AT76" s="18"/>
       <c r="AU76" s="22"/>
     </row>
-    <row r="77" spans="3:47">
+    <row r="77" spans="2:47">
+      <c r="B77" s="26"/>
       <c r="C77" s="13"/>
       <c r="D77" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="18"/>
@@ -2864,7 +2948,7 @@
       <c r="O77" s="22"/>
       <c r="S77" s="13"/>
       <c r="T77" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U77" s="14"/>
       <c r="V77" s="18"/>
@@ -2893,9 +2977,12 @@
       <c r="AT77" s="18"/>
       <c r="AU77" s="22"/>
     </row>
-    <row r="78" spans="3:47">
+    <row r="78" spans="2:47">
+      <c r="B78" s="26"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="21"/>
+      <c r="D78" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -2908,7 +2995,9 @@
       <c r="N78" s="18"/>
       <c r="O78" s="22"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="21"/>
+      <c r="T78" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="U78" s="1"/>
       <c r="V78" s="18"/>
       <c r="W78" s="18"/>
@@ -2934,7 +3023,8 @@
       <c r="AT78" s="18"/>
       <c r="AU78" s="22"/>
     </row>
-    <row r="79" spans="3:47">
+    <row r="79" spans="2:47">
+      <c r="B79" s="26"/>
       <c r="C79" s="5" t="s">
         <v>48</v>
       </c>
@@ -2981,7 +3071,8 @@
       <c r="AT79" s="18"/>
       <c r="AU79" s="22"/>
     </row>
-    <row r="80" spans="3:47" ht="17.25" thickBot="1">
+    <row r="80" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B80" s="26"/>
       <c r="C80" s="7" t="s">
         <v>49</v>
       </c>
@@ -3028,8 +3119,11 @@
       <c r="AT80" s="24"/>
       <c r="AU80" s="25"/>
     </row>
-    <row r="81" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="82" spans="3:47">
+    <row r="81" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B81" s="26"/>
+    </row>
+    <row r="82" spans="2:47">
+      <c r="B82" s="26"/>
       <c r="C82" s="2" t="s">
         <v>62</v>
       </c>
@@ -3148,7 +3242,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="3:47">
+    <row r="83" spans="2:47">
+      <c r="B83" s="26"/>
       <c r="C83" s="13" t="s">
         <v>48</v>
       </c>
@@ -3207,7 +3302,8 @@
       <c r="AT83" s="18"/>
       <c r="AU83" s="22"/>
     </row>
-    <row r="84" spans="3:47">
+    <row r="84" spans="2:47">
+      <c r="B84" s="26"/>
       <c r="C84" s="13"/>
       <c r="D84" s="21" t="s">
         <v>30</v>
@@ -3254,7 +3350,8 @@
       <c r="AT84" s="18"/>
       <c r="AU84" s="22"/>
     </row>
-    <row r="85" spans="3:47">
+    <row r="85" spans="2:47">
+      <c r="B85" s="26"/>
       <c r="C85" s="13"/>
       <c r="D85" s="21" t="s">
         <v>31</v>
@@ -3301,7 +3398,8 @@
       <c r="AT85" s="18"/>
       <c r="AU85" s="22"/>
     </row>
-    <row r="86" spans="3:47">
+    <row r="86" spans="2:47">
+      <c r="B86" s="26"/>
       <c r="C86" s="5"/>
       <c r="D86" s="21"/>
       <c r="E86" s="11"/>
@@ -3342,12 +3440,13 @@
       <c r="AT86" s="18"/>
       <c r="AU86" s="22"/>
     </row>
-    <row r="87" spans="3:47" ht="17.25" thickBot="1">
+    <row r="87" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B87" s="26"/>
       <c r="C87" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>37</v>
@@ -3366,7 +3465,7 @@
         <v>49</v>
       </c>
       <c r="T87" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U87" s="14" t="s">
         <v>37</v>
@@ -3401,10 +3500,11 @@
       <c r="AT87" s="18"/>
       <c r="AU87" s="22"/>
     </row>
-    <row r="88" spans="3:47">
+    <row r="88" spans="2:47">
+      <c r="B88" s="26"/>
       <c r="C88" s="13"/>
-      <c r="D88" s="21" t="s">
-        <v>46</v>
+      <c r="D88" t="s">
+        <v>68</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="18"/>
@@ -3418,8 +3518,8 @@
       <c r="N88" s="18"/>
       <c r="O88" s="22"/>
       <c r="S88" s="13"/>
-      <c r="T88" s="21" t="s">
-        <v>46</v>
+      <c r="T88" t="s">
+        <v>68</v>
       </c>
       <c r="U88" s="14"/>
       <c r="V88" s="18"/>
@@ -3448,10 +3548,11 @@
       <c r="AT88" s="18"/>
       <c r="AU88" s="22"/>
     </row>
-    <row r="89" spans="3:47">
+    <row r="89" spans="2:47">
+      <c r="B89" s="26"/>
       <c r="C89" s="13"/>
       <c r="D89" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="18"/>
@@ -3466,7 +3567,7 @@
       <c r="O89" s="22"/>
       <c r="S89" s="13"/>
       <c r="T89" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U89" s="14"/>
       <c r="V89" s="18"/>
@@ -3495,9 +3596,12 @@
       <c r="AT89" s="18"/>
       <c r="AU89" s="22"/>
     </row>
-    <row r="90" spans="3:47">
+    <row r="90" spans="2:47">
+      <c r="B90" s="26"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="21"/>
+      <c r="D90" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E90" s="11"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
@@ -3510,7 +3614,9 @@
       <c r="N90" s="18"/>
       <c r="O90" s="22"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="21"/>
+      <c r="T90" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="U90" s="11"/>
       <c r="V90" s="18"/>
       <c r="W90" s="18"/>
@@ -3536,7 +3642,8 @@
       <c r="AT90" s="18"/>
       <c r="AU90" s="22"/>
     </row>
-    <row r="91" spans="3:47">
+    <row r="91" spans="2:47">
+      <c r="B91" s="26"/>
       <c r="C91" s="5" t="s">
         <v>48</v>
       </c>
@@ -3583,7 +3690,8 @@
       <c r="AT91" s="18"/>
       <c r="AU91" s="22"/>
     </row>
-    <row r="92" spans="3:47" ht="17.25" thickBot="1">
+    <row r="92" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B92" s="26"/>
       <c r="C92" s="7" t="s">
         <v>49</v>
       </c>
@@ -3630,8 +3738,11 @@
       <c r="AT92" s="24"/>
       <c r="AU92" s="25"/>
     </row>
-    <row r="93" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="94" spans="3:47">
+    <row r="93" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B93" s="26"/>
+    </row>
+    <row r="94" spans="2:47">
+      <c r="B94" s="26"/>
       <c r="C94" s="2" t="s">
         <v>62</v>
       </c>
@@ -3750,7 +3861,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="3:47">
+    <row r="95" spans="2:47">
+      <c r="B95" s="26"/>
       <c r="C95" s="13" t="s">
         <v>48</v>
       </c>
@@ -3809,7 +3921,8 @@
       <c r="AT95" s="18"/>
       <c r="AU95" s="22"/>
     </row>
-    <row r="96" spans="3:47">
+    <row r="96" spans="2:47">
+      <c r="B96" s="26"/>
       <c r="C96" s="13"/>
       <c r="D96" s="21" t="s">
         <v>30</v>
@@ -3856,7 +3969,8 @@
       <c r="AT96" s="18"/>
       <c r="AU96" s="22"/>
     </row>
-    <row r="97" spans="3:47">
+    <row r="97" spans="2:47">
+      <c r="B97" s="26"/>
       <c r="C97" s="13"/>
       <c r="D97" s="21" t="s">
         <v>31</v>
@@ -3903,7 +4017,8 @@
       <c r="AT97" s="18"/>
       <c r="AU97" s="22"/>
     </row>
-    <row r="98" spans="3:47">
+    <row r="98" spans="2:47">
+      <c r="B98" s="26"/>
       <c r="C98" s="5"/>
       <c r="D98" s="21"/>
       <c r="E98" s="11"/>
@@ -3944,12 +4059,13 @@
       <c r="AT98" s="18"/>
       <c r="AU98" s="22"/>
     </row>
-    <row r="99" spans="3:47" ht="66.75" thickBot="1">
+    <row r="99" spans="2:47" ht="66.75" thickBot="1">
+      <c r="B99" s="26"/>
       <c r="C99" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>50</v>
@@ -3968,7 +4084,7 @@
         <v>49</v>
       </c>
       <c r="T99" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U99" s="17" t="s">
         <v>50</v>
@@ -4003,10 +4119,11 @@
       <c r="AT99" s="18"/>
       <c r="AU99" s="22"/>
     </row>
-    <row r="100" spans="3:47">
+    <row r="100" spans="2:47">
+      <c r="B100" s="26"/>
       <c r="C100" s="13"/>
-      <c r="D100" s="21" t="s">
-        <v>46</v>
+      <c r="D100" t="s">
+        <v>68</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="18"/>
@@ -4020,8 +4137,8 @@
       <c r="N100" s="18"/>
       <c r="O100" s="22"/>
       <c r="S100" s="13"/>
-      <c r="T100" s="21" t="s">
-        <v>46</v>
+      <c r="T100" t="s">
+        <v>68</v>
       </c>
       <c r="U100" s="14"/>
       <c r="V100" s="18"/>
@@ -4050,10 +4167,11 @@
       <c r="AT100" s="18"/>
       <c r="AU100" s="22"/>
     </row>
-    <row r="101" spans="3:47">
+    <row r="101" spans="2:47">
+      <c r="B101" s="26"/>
       <c r="C101" s="13"/>
       <c r="D101" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="18"/>
@@ -4068,7 +4186,7 @@
       <c r="O101" s="22"/>
       <c r="S101" s="13"/>
       <c r="T101" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U101" s="14"/>
       <c r="V101" s="18"/>
@@ -4097,9 +4215,12 @@
       <c r="AT101" s="18"/>
       <c r="AU101" s="22"/>
     </row>
-    <row r="102" spans="3:47">
+    <row r="102" spans="2:47">
+      <c r="B102" s="26"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="21"/>
+      <c r="D102" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E102" s="11"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
@@ -4112,7 +4233,9 @@
       <c r="N102" s="18"/>
       <c r="O102" s="22"/>
       <c r="S102" s="5"/>
-      <c r="T102" s="21"/>
+      <c r="T102" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="U102" s="11"/>
       <c r="V102" s="18"/>
       <c r="W102" s="18"/>
@@ -4138,7 +4261,8 @@
       <c r="AT102" s="18"/>
       <c r="AU102" s="22"/>
     </row>
-    <row r="103" spans="3:47">
+    <row r="103" spans="2:47">
+      <c r="B103" s="26"/>
       <c r="C103" s="5" t="s">
         <v>48</v>
       </c>
@@ -4185,7 +4309,8 @@
       <c r="AT103" s="18"/>
       <c r="AU103" s="22"/>
     </row>
-    <row r="104" spans="3:47" ht="17.25" thickBot="1">
+    <row r="104" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B104" s="26"/>
       <c r="C104" s="7" t="s">
         <v>49</v>
       </c>
@@ -4232,8 +4357,11 @@
       <c r="AT104" s="24"/>
       <c r="AU104" s="25"/>
     </row>
-    <row r="105" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="106" spans="3:47">
+    <row r="105" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B105" s="26"/>
+    </row>
+    <row r="106" spans="2:47">
+      <c r="B106" s="26"/>
       <c r="C106" s="2" t="s">
         <v>62</v>
       </c>
@@ -4352,7 +4480,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="3:47">
+    <row r="107" spans="2:47">
+      <c r="B107" s="26"/>
       <c r="C107" s="13" t="s">
         <v>48</v>
       </c>
@@ -4411,7 +4540,8 @@
       <c r="AT107" s="18"/>
       <c r="AU107" s="22"/>
     </row>
-    <row r="108" spans="3:47">
+    <row r="108" spans="2:47">
+      <c r="B108" s="26"/>
       <c r="C108" s="13"/>
       <c r="D108" s="21" t="s">
         <v>30</v>
@@ -4458,7 +4588,8 @@
       <c r="AT108" s="18"/>
       <c r="AU108" s="22"/>
     </row>
-    <row r="109" spans="3:47">
+    <row r="109" spans="2:47">
+      <c r="B109" s="26"/>
       <c r="C109" s="13"/>
       <c r="D109" s="21" t="s">
         <v>31</v>
@@ -4505,7 +4636,8 @@
       <c r="AT109" s="18"/>
       <c r="AU109" s="22"/>
     </row>
-    <row r="110" spans="3:47">
+    <row r="110" spans="2:47">
+      <c r="B110" s="26"/>
       <c r="C110" s="5"/>
       <c r="D110" s="21"/>
       <c r="E110" s="1"/>
@@ -4546,12 +4678,13 @@
       <c r="AT110" s="18"/>
       <c r="AU110" s="22"/>
     </row>
-    <row r="111" spans="3:47" ht="50.25" thickBot="1">
+    <row r="111" spans="2:47" ht="50.25" thickBot="1">
+      <c r="B111" s="26"/>
       <c r="C111" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>51</v>
@@ -4570,7 +4703,7 @@
         <v>49</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U111" s="17" t="s">
         <v>51</v>
@@ -4605,10 +4738,11 @@
       <c r="AT111" s="18"/>
       <c r="AU111" s="22"/>
     </row>
-    <row r="112" spans="3:47">
+    <row r="112" spans="2:47">
+      <c r="B112" s="26"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="21" t="s">
-        <v>46</v>
+      <c r="D112" t="s">
+        <v>68</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="18"/>
@@ -4622,8 +4756,8 @@
       <c r="N112" s="18"/>
       <c r="O112" s="22"/>
       <c r="S112" s="13"/>
-      <c r="T112" s="21" t="s">
-        <v>46</v>
+      <c r="T112" t="s">
+        <v>68</v>
       </c>
       <c r="U112" s="14"/>
       <c r="V112" s="18"/>
@@ -4652,10 +4786,11 @@
       <c r="AT112" s="18"/>
       <c r="AU112" s="22"/>
     </row>
-    <row r="113" spans="3:47">
+    <row r="113" spans="2:47">
+      <c r="B113" s="26"/>
       <c r="C113" s="13"/>
       <c r="D113" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="18"/>
@@ -4670,7 +4805,7 @@
       <c r="O113" s="22"/>
       <c r="S113" s="13"/>
       <c r="T113" s="21" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U113" s="14"/>
       <c r="V113" s="18"/>
@@ -4699,9 +4834,12 @@
       <c r="AT113" s="18"/>
       <c r="AU113" s="22"/>
     </row>
-    <row r="114" spans="3:47">
+    <row r="114" spans="2:47">
+      <c r="B114" s="26"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="21"/>
+      <c r="D114" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -4714,7 +4852,9 @@
       <c r="N114" s="18"/>
       <c r="O114" s="22"/>
       <c r="S114" s="5"/>
-      <c r="T114" s="21"/>
+      <c r="T114" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="U114" s="1"/>
       <c r="V114" s="18"/>
       <c r="W114" s="18"/>
@@ -4740,7 +4880,8 @@
       <c r="AT114" s="18"/>
       <c r="AU114" s="22"/>
     </row>
-    <row r="115" spans="3:47">
+    <row r="115" spans="2:47">
+      <c r="B115" s="26"/>
       <c r="C115" s="5" t="s">
         <v>48</v>
       </c>
@@ -4787,7 +4928,8 @@
       <c r="AT115" s="18"/>
       <c r="AU115" s="22"/>
     </row>
-    <row r="116" spans="3:47" ht="17.25" thickBot="1">
+    <row r="116" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B116" s="26"/>
       <c r="C116" s="7" t="s">
         <v>49</v>
       </c>
@@ -4834,411 +4976,942 @@
       <c r="AT116" s="24"/>
       <c r="AU116" s="25"/>
     </row>
-    <row r="125" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="126" spans="3:47">
-      <c r="C126" s="2" t="s">
+    <row r="117" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B117" s="26"/>
+    </row>
+    <row r="118" spans="2:47">
+      <c r="B118" s="26"/>
+      <c r="C118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J118" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N118" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O118" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V118" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W118" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="X118" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y118" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z118" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB118" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC118" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD118" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE118" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ118" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK118" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL118" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM118" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN118" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO118" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP118" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR118" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS118" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT118" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU118" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="2:47">
+      <c r="B119" s="26"/>
+      <c r="C119" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="22"/>
+      <c r="S119" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T119" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U119" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V119" s="18"/>
+      <c r="W119" s="18"/>
+      <c r="X119" s="18"/>
+      <c r="Y119" s="18"/>
+      <c r="Z119" s="18"/>
+      <c r="AA119" s="18"/>
+      <c r="AB119" s="18"/>
+      <c r="AC119" s="18"/>
+      <c r="AD119" s="18"/>
+      <c r="AE119" s="22"/>
+      <c r="AI119" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ119" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK119" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL119" s="18"/>
+      <c r="AM119" s="18"/>
+      <c r="AN119" s="18"/>
+      <c r="AO119" s="18"/>
+      <c r="AP119" s="18"/>
+      <c r="AQ119" s="18"/>
+      <c r="AR119" s="18"/>
+      <c r="AS119" s="18"/>
+      <c r="AT119" s="18"/>
+      <c r="AU119" s="22"/>
+    </row>
+    <row r="120" spans="2:47">
+      <c r="B120" s="26"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="22"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V120" s="18"/>
+      <c r="W120" s="18"/>
+      <c r="X120" s="18"/>
+      <c r="Y120" s="18"/>
+      <c r="Z120" s="18"/>
+      <c r="AA120" s="18"/>
+      <c r="AB120" s="18"/>
+      <c r="AC120" s="18"/>
+      <c r="AD120" s="18"/>
+      <c r="AE120" s="22"/>
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL120" s="18"/>
+      <c r="AM120" s="18"/>
+      <c r="AN120" s="18"/>
+      <c r="AO120" s="18"/>
+      <c r="AP120" s="18"/>
+      <c r="AQ120" s="18"/>
+      <c r="AR120" s="18"/>
+      <c r="AS120" s="18"/>
+      <c r="AT120" s="18"/>
+      <c r="AU120" s="22"/>
+    </row>
+    <row r="121" spans="2:47">
+      <c r="B121" s="26"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="22"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U121" s="14"/>
+      <c r="V121" s="18"/>
+      <c r="W121" s="18"/>
+      <c r="X121" s="18"/>
+      <c r="Y121" s="18"/>
+      <c r="Z121" s="18"/>
+      <c r="AA121" s="18"/>
+      <c r="AB121" s="18"/>
+      <c r="AC121" s="18"/>
+      <c r="AD121" s="18"/>
+      <c r="AE121" s="22"/>
+      <c r="AI121" s="13"/>
+      <c r="AJ121" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK121" s="14"/>
+      <c r="AL121" s="18"/>
+      <c r="AM121" s="18"/>
+      <c r="AN121" s="18"/>
+      <c r="AO121" s="18"/>
+      <c r="AP121" s="18"/>
+      <c r="AQ121" s="18"/>
+      <c r="AR121" s="18"/>
+      <c r="AS121" s="18"/>
+      <c r="AT121" s="18"/>
+      <c r="AU121" s="22"/>
+    </row>
+    <row r="122" spans="2:47">
+      <c r="B122" s="26"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="22"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="18"/>
+      <c r="W122" s="18"/>
+      <c r="X122" s="18"/>
+      <c r="Y122" s="18"/>
+      <c r="Z122" s="18"/>
+      <c r="AA122" s="18"/>
+      <c r="AB122" s="18"/>
+      <c r="AC122" s="18"/>
+      <c r="AD122" s="18"/>
+      <c r="AE122" s="22"/>
+      <c r="AI122" s="5"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="18"/>
+      <c r="AM122" s="18"/>
+      <c r="AN122" s="18"/>
+      <c r="AO122" s="18"/>
+      <c r="AP122" s="18"/>
+      <c r="AQ122" s="18"/>
+      <c r="AR122" s="18"/>
+      <c r="AS122" s="18"/>
+      <c r="AT122" s="18"/>
+      <c r="AU122" s="22"/>
+    </row>
+    <row r="123" spans="2:47" ht="66.75" thickBot="1">
+      <c r="B123" s="26"/>
+      <c r="C123" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="22"/>
+      <c r="S123" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T123" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="U123" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V123" s="18"/>
+      <c r="W123" s="18"/>
+      <c r="X123" s="18"/>
+      <c r="Y123" s="18"/>
+      <c r="Z123" s="18"/>
+      <c r="AA123" s="18"/>
+      <c r="AB123" s="18"/>
+      <c r="AC123" s="18"/>
+      <c r="AD123" s="18"/>
+      <c r="AE123" s="22"/>
+      <c r="AI123" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ123" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK123" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL123" s="18"/>
+      <c r="AM123" s="18"/>
+      <c r="AN123" s="18"/>
+      <c r="AO123" s="18"/>
+      <c r="AP123" s="18"/>
+      <c r="AQ123" s="18"/>
+      <c r="AR123" s="18"/>
+      <c r="AS123" s="18"/>
+      <c r="AT123" s="18"/>
+      <c r="AU123" s="22"/>
+    </row>
+    <row r="124" spans="2:47">
+      <c r="B124" s="26"/>
+      <c r="C124" s="13"/>
+      <c r="D124" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="22"/>
+      <c r="S124" s="13"/>
+      <c r="T124" t="s">
+        <v>68</v>
+      </c>
+      <c r="U124" s="14"/>
+      <c r="V124" s="18"/>
+      <c r="W124" s="18"/>
+      <c r="X124" s="18"/>
+      <c r="Y124" s="18"/>
+      <c r="Z124" s="18"/>
+      <c r="AA124" s="18"/>
+      <c r="AB124" s="18"/>
+      <c r="AC124" s="18"/>
+      <c r="AD124" s="18"/>
+      <c r="AE124" s="22"/>
+      <c r="AI124" s="13"/>
+      <c r="AJ124" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK124" s="14"/>
+      <c r="AL124" s="18"/>
+      <c r="AM124" s="18"/>
+      <c r="AN124" s="18"/>
+      <c r="AO124" s="18"/>
+      <c r="AP124" s="18"/>
+      <c r="AQ124" s="18"/>
+      <c r="AR124" s="18"/>
+      <c r="AS124" s="18"/>
+      <c r="AT124" s="18"/>
+      <c r="AU124" s="22"/>
+    </row>
+    <row r="125" spans="2:47">
+      <c r="B125" s="26"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="22"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U125" s="14"/>
+      <c r="V125" s="18"/>
+      <c r="W125" s="18"/>
+      <c r="X125" s="18"/>
+      <c r="Y125" s="18"/>
+      <c r="Z125" s="18"/>
+      <c r="AA125" s="18"/>
+      <c r="AB125" s="18"/>
+      <c r="AC125" s="18"/>
+      <c r="AD125" s="18"/>
+      <c r="AE125" s="22"/>
+      <c r="AI125" s="13"/>
+      <c r="AJ125" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK125" s="14"/>
+      <c r="AL125" s="18"/>
+      <c r="AM125" s="18"/>
+      <c r="AN125" s="18"/>
+      <c r="AO125" s="18"/>
+      <c r="AP125" s="18"/>
+      <c r="AQ125" s="18"/>
+      <c r="AR125" s="18"/>
+      <c r="AS125" s="18"/>
+      <c r="AT125" s="18"/>
+      <c r="AU125" s="22"/>
+    </row>
+    <row r="126" spans="2:47">
+      <c r="B126" s="26"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="22"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="U126" s="1"/>
+      <c r="V126" s="18"/>
+      <c r="W126" s="18"/>
+      <c r="X126" s="18"/>
+      <c r="Y126" s="18"/>
+      <c r="Z126" s="18"/>
+      <c r="AA126" s="18"/>
+      <c r="AB126" s="18"/>
+      <c r="AC126" s="18"/>
+      <c r="AD126" s="18"/>
+      <c r="AE126" s="22"/>
+      <c r="AI126" s="5"/>
+      <c r="AJ126" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="18"/>
+      <c r="AM126" s="18"/>
+      <c r="AN126" s="18"/>
+      <c r="AO126" s="18"/>
+      <c r="AP126" s="18"/>
+      <c r="AQ126" s="18"/>
+      <c r="AR126" s="18"/>
+      <c r="AS126" s="18"/>
+      <c r="AT126" s="18"/>
+      <c r="AU126" s="22"/>
+    </row>
+    <row r="127" spans="2:47">
+      <c r="B127" s="26"/>
+      <c r="C127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="22"/>
+      <c r="S127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T127" s="21"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="18"/>
+      <c r="W127" s="18"/>
+      <c r="X127" s="18"/>
+      <c r="Y127" s="18"/>
+      <c r="Z127" s="18"/>
+      <c r="AA127" s="18"/>
+      <c r="AB127" s="18"/>
+      <c r="AC127" s="18"/>
+      <c r="AD127" s="18"/>
+      <c r="AE127" s="22"/>
+      <c r="AI127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ127" s="21"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="18"/>
+      <c r="AM127" s="18"/>
+      <c r="AN127" s="18"/>
+      <c r="AO127" s="18"/>
+      <c r="AP127" s="18"/>
+      <c r="AQ127" s="18"/>
+      <c r="AR127" s="18"/>
+      <c r="AS127" s="18"/>
+      <c r="AT127" s="18"/>
+      <c r="AU127" s="22"/>
+    </row>
+    <row r="128" spans="2:47" ht="17.25" thickBot="1">
+      <c r="B128" s="26"/>
+      <c r="C128" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="23"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="25"/>
+      <c r="S128" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T128" s="23"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="24"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="25"/>
+      <c r="AI128" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ128" s="23"/>
+      <c r="AK128" s="8"/>
+      <c r="AL128" s="24"/>
+      <c r="AM128" s="24"/>
+      <c r="AN128" s="24"/>
+      <c r="AO128" s="24"/>
+      <c r="AP128" s="24"/>
+      <c r="AQ128" s="24"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="24"/>
+      <c r="AT128" s="24"/>
+      <c r="AU128" s="25"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="26"/>
+    </row>
+    <row r="131" spans="2:16" ht="17.25" thickBot="1"/>
+    <row r="132" spans="2:16">
+      <c r="C132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F132" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I126" s="10" t="s">
+      <c r="I132" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J126" s="10" t="s">
+      <c r="J132" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K132" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L126" s="3" t="s">
+      <c r="L132" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="10" t="s">
+      <c r="M132" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N126" s="10" t="s">
+      <c r="N132" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O126" s="3" t="s">
+      <c r="O132" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P126" s="4" t="s">
+      <c r="P132" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="3:47">
-      <c r="C127" s="13" t="s">
+    <row r="133" spans="2:16">
+      <c r="C133" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D133" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E133" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14" t="s">
+      <c r="F133" s="14"/>
+      <c r="G133" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14" t="s">
+      <c r="H133" s="14"/>
+      <c r="I133" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14" t="s">
+      <c r="J133" s="14"/>
+      <c r="K133" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14" t="s">
+      <c r="L133" s="14"/>
+      <c r="M133" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14" t="s">
+      <c r="N133" s="14"/>
+      <c r="O133" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P127" s="15"/>
-    </row>
-    <row r="128" spans="3:47">
-      <c r="C128" s="13"/>
-      <c r="D128" s="14" t="s">
+      <c r="P133" s="15"/>
+    </row>
+    <row r="134" spans="2:16">
+      <c r="C134" s="13"/>
+      <c r="D134" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="15"/>
-    </row>
-    <row r="129" spans="3:16">
-      <c r="C129" s="13"/>
-      <c r="D129" s="14" t="s">
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="15"/>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="C135" s="13"/>
+      <c r="D135" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="15"/>
-    </row>
-    <row r="130" spans="3:16">
-      <c r="C130" s="5"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="6"/>
-    </row>
-    <row r="131" spans="3:16" ht="33.75" thickBot="1">
-      <c r="C131" s="16" t="s">
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="15"/>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="C136" s="5"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="6"/>
+    </row>
+    <row r="137" spans="2:16" ht="33.75" thickBot="1">
+      <c r="C137" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D137" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E137" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14" t="s">
+      <c r="F137" s="14"/>
+      <c r="G137" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14" t="s">
+      <c r="H137" s="14"/>
+      <c r="I137" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J131" s="14"/>
-      <c r="K131" s="17" t="s">
+      <c r="J137" s="14"/>
+      <c r="K137" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L131" s="14"/>
-      <c r="M131" s="17" t="s">
+      <c r="L137" s="14"/>
+      <c r="M137" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N131" s="14"/>
-      <c r="O131" s="17" t="s">
+      <c r="N137" s="14"/>
+      <c r="O137" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P131" s="15"/>
-    </row>
-    <row r="132" spans="3:16">
-      <c r="C132" s="13"/>
-      <c r="D132" s="14" t="s">
+      <c r="P137" s="15"/>
+    </row>
+    <row r="138" spans="2:16">
+      <c r="C138" s="13"/>
+      <c r="D138" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="15"/>
-    </row>
-    <row r="133" spans="3:16">
-      <c r="C133" s="13"/>
-      <c r="D133" s="14" t="s">
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="15"/>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="C139" s="13"/>
+      <c r="D139" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="15"/>
-    </row>
-    <row r="134" spans="3:16">
-      <c r="C134" s="5"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="6"/>
-    </row>
-    <row r="135" spans="3:16">
-      <c r="C135" s="5" t="s">
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="15"/>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="C140" s="5"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="6"/>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="C141" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="6"/>
-    </row>
-    <row r="136" spans="3:16" ht="17.25" thickBot="1">
-      <c r="C136" s="7" t="s">
+      <c r="D141" s="1"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="6"/>
+    </row>
+    <row r="142" spans="2:16" ht="17.25" thickBot="1">
+      <c r="C142" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="9"/>
-    </row>
-    <row r="138" spans="3:16" ht="17.25" thickBot="1"/>
-    <row r="139" spans="3:16">
-      <c r="C139" s="2" t="s">
+      <c r="D142" s="8"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="9"/>
+    </row>
+    <row r="144" spans="2:16" ht="17.25" thickBot="1"/>
+    <row r="145" spans="3:15">
+      <c r="C145" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E145" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="19" t="s">
+      <c r="F145" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G145" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="H145" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I139" s="19" t="s">
+      <c r="I145" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J139" s="19" t="s">
+      <c r="J145" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K139" s="19" t="s">
+      <c r="K145" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L139" s="19" t="s">
+      <c r="L145" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M139" s="19" t="s">
+      <c r="M145" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N139" s="19" t="s">
+      <c r="N145" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O139" s="20" t="s">
+      <c r="O145" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="3:16">
-      <c r="C140" s="13" t="s">
+    <row r="146" spans="3:15">
+      <c r="C146" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D146" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E146" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="22"/>
-    </row>
-    <row r="141" spans="3:16">
-      <c r="C141" s="13"/>
-      <c r="D141" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="22"/>
-    </row>
-    <row r="142" spans="3:16">
-      <c r="C142" s="13"/>
-      <c r="D142" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="22"/>
-    </row>
-    <row r="143" spans="3:16">
-      <c r="C143" s="5"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="22"/>
-    </row>
-    <row r="144" spans="3:16" ht="17.25" thickBot="1">
-      <c r="C144" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E144" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="22"/>
-    </row>
-    <row r="145" spans="3:15">
-      <c r="C145" s="13"/>
-      <c r="D145" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="22"/>
-    </row>
-    <row r="146" spans="3:15">
-      <c r="C146" s="13"/>
-      <c r="D146" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E146" s="18"/>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
@@ -5251,8 +5924,10 @@
       <c r="O146" s="22"/>
     </row>
     <row r="147" spans="3:15">
-      <c r="C147" s="5"/>
-      <c r="D147" s="21"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
@@ -5266,10 +5941,10 @@
       <c r="O147" s="22"/>
     </row>
     <row r="148" spans="3:15">
-      <c r="C148" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="21"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
@@ -5282,75 +5957,65 @@
       <c r="N148" s="18"/>
       <c r="O148" s="22"/>
     </row>
-    <row r="149" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C149" s="7" t="s">
+    <row r="149" spans="3:15">
+      <c r="C149" s="5"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="22"/>
+    </row>
+    <row r="150" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C150" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="24"/>
-      <c r="O149" s="25"/>
-    </row>
-    <row r="150" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D150" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="22"/>
+    </row>
     <row r="151" spans="3:15">
-      <c r="C151" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I151" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J151" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K151" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L151" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M151" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N151" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O151" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="22"/>
     </row>
     <row r="152" spans="3:15">
-      <c r="C152" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C152" s="13"/>
       <c r="D152" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>38</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
@@ -5363,11 +6028,11 @@
       <c r="O152" s="22"/>
     </row>
     <row r="153" spans="3:15">
-      <c r="C153" s="13"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E153" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
@@ -5380,11 +6045,11 @@
       <c r="O153" s="22"/>
     </row>
     <row r="154" spans="3:15">
-      <c r="C154" s="13"/>
-      <c r="D154" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154" s="14"/>
+      <c r="C154" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="21"/>
+      <c r="E154" s="18"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
@@ -5396,65 +6061,75 @@
       <c r="N154" s="18"/>
       <c r="O154" s="22"/>
     </row>
-    <row r="155" spans="3:15">
-      <c r="C155" s="5"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="22"/>
-    </row>
-    <row r="156" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C156" s="16" t="s">
+    <row r="155" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C155" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D156" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E156" s="14" t="s">
+      <c r="D155" s="23"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
+      <c r="N155" s="24"/>
+      <c r="O155" s="25"/>
+    </row>
+    <row r="156" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="157" spans="3:15">
+      <c r="C157" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J157" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K157" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L157" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M157" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N157" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O157" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="3:15">
+      <c r="C158" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="22"/>
-    </row>
-    <row r="157" spans="3:15">
-      <c r="C157" s="13"/>
-      <c r="D157" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="14"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="22"/>
-    </row>
-    <row r="158" spans="3:15">
-      <c r="C158" s="13"/>
-      <c r="D158" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E158" s="14"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
@@ -5467,9 +6142,11 @@
       <c r="O158" s="22"/>
     </row>
     <row r="159" spans="3:15">
-      <c r="C159" s="5"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="1"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="14"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
@@ -5482,11 +6159,11 @@
       <c r="O159" s="22"/>
     </row>
     <row r="160" spans="3:15">
-      <c r="C160" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D160" s="21"/>
-      <c r="E160" s="1"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="14"/>
       <c r="F160" s="18"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
@@ -5498,75 +6175,65 @@
       <c r="N160" s="18"/>
       <c r="O160" s="22"/>
     </row>
-    <row r="161" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C161" s="7" t="s">
+    <row r="161" spans="3:15">
+      <c r="C161" s="5"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
+      <c r="O161" s="22"/>
+    </row>
+    <row r="162" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C162" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24"/>
-      <c r="M161" s="24"/>
-      <c r="N161" s="24"/>
-      <c r="O161" s="25"/>
-    </row>
-    <row r="162" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D162" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
+      <c r="O162" s="22"/>
+    </row>
     <row r="163" spans="3:15">
-      <c r="C163" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F163" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H163" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I163" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J163" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K163" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L163" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M163" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N163" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O163" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" s="14"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
+      <c r="O163" s="22"/>
     </row>
     <row r="164" spans="3:15">
-      <c r="C164" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C164" s="13"/>
       <c r="D164" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E164" s="14"/>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
@@ -5579,11 +6246,11 @@
       <c r="O164" s="22"/>
     </row>
     <row r="165" spans="3:15">
-      <c r="C165" s="13"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="E165" s="1"/>
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
@@ -5596,11 +6263,11 @@
       <c r="O165" s="22"/>
     </row>
     <row r="166" spans="3:15">
-      <c r="C166" s="13"/>
-      <c r="D166" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E166" s="14"/>
+      <c r="C166" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="21"/>
+      <c r="E166" s="1"/>
       <c r="F166" s="18"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
@@ -5612,65 +6279,75 @@
       <c r="N166" s="18"/>
       <c r="O166" s="22"/>
     </row>
-    <row r="167" spans="3:15">
-      <c r="C167" s="5"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="22"/>
-    </row>
-    <row r="168" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C168" s="16" t="s">
+    <row r="167" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C167" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D168" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E168" s="14" t="s">
+      <c r="D167" s="23"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="25"/>
+    </row>
+    <row r="168" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="169" spans="3:15">
+      <c r="C169" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J169" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K169" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L169" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M169" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N169" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O169" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="3:15">
+      <c r="C170" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="22"/>
-    </row>
-    <row r="169" spans="3:15">
-      <c r="C169" s="13"/>
-      <c r="D169" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" s="14"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="22"/>
-    </row>
-    <row r="170" spans="3:15">
-      <c r="C170" s="13"/>
-      <c r="D170" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E170" s="14"/>
       <c r="F170" s="18"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
@@ -5683,9 +6360,11 @@
       <c r="O170" s="22"/>
     </row>
     <row r="171" spans="3:15">
-      <c r="C171" s="5"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="11"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="14"/>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
@@ -5698,11 +6377,11 @@
       <c r="O171" s="22"/>
     </row>
     <row r="172" spans="3:15">
-      <c r="C172" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D172" s="21"/>
-      <c r="E172" s="11"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="14"/>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
@@ -5714,75 +6393,65 @@
       <c r="N172" s="18"/>
       <c r="O172" s="22"/>
     </row>
-    <row r="173" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C173" s="7" t="s">
+    <row r="173" spans="3:15">
+      <c r="C173" s="5"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="22"/>
+    </row>
+    <row r="174" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C174" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D173" s="23"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="24"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="24"/>
-      <c r="M173" s="24"/>
-      <c r="N173" s="24"/>
-      <c r="O173" s="25"/>
-    </row>
-    <row r="174" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D174" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
+      <c r="O174" s="22"/>
+    </row>
     <row r="175" spans="3:15">
-      <c r="C175" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I175" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J175" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K175" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L175" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M175" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N175" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O175" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" t="s">
+        <v>68</v>
+      </c>
+      <c r="E175" s="14"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
+      <c r="O175" s="22"/>
     </row>
     <row r="176" spans="3:15">
-      <c r="C176" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C176" s="13"/>
       <c r="D176" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>43</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E176" s="14"/>
       <c r="F176" s="18"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
@@ -5795,11 +6464,11 @@
       <c r="O176" s="22"/>
     </row>
     <row r="177" spans="3:15">
-      <c r="C177" s="13"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E177" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="E177" s="11"/>
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
@@ -5812,11 +6481,11 @@
       <c r="O177" s="22"/>
     </row>
     <row r="178" spans="3:15">
-      <c r="C178" s="13"/>
-      <c r="D178" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E178" s="14"/>
+      <c r="C178" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" s="21"/>
+      <c r="E178" s="11"/>
       <c r="F178" s="18"/>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
@@ -5828,65 +6497,75 @@
       <c r="N178" s="18"/>
       <c r="O178" s="22"/>
     </row>
-    <row r="179" spans="3:15">
-      <c r="C179" s="5"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="22"/>
-    </row>
-    <row r="180" spans="3:15" ht="33.75" thickBot="1">
-      <c r="C180" s="16" t="s">
+    <row r="179" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C179" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D180" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="22"/>
-    </row>
+      <c r="D179" s="23"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="24"/>
+      <c r="O179" s="25"/>
+    </row>
+    <row r="180" spans="3:15" ht="17.25" thickBot="1"/>
     <row r="181" spans="3:15">
-      <c r="C181" s="13"/>
-      <c r="D181" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E181" s="14"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="22"/>
+      <c r="C181" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I181" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J181" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K181" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L181" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M181" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N181" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O181" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="182" spans="3:15">
-      <c r="C182" s="13"/>
+      <c r="C182" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="D182" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E182" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="F182" s="18"/>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -5899,9 +6578,11 @@
       <c r="O182" s="22"/>
     </row>
     <row r="183" spans="3:15">
-      <c r="C183" s="5"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="11"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="14"/>
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
@@ -5914,11 +6595,11 @@
       <c r="O183" s="22"/>
     </row>
     <row r="184" spans="3:15">
-      <c r="C184" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D184" s="21"/>
-      <c r="E184" s="11"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" s="14"/>
       <c r="F184" s="18"/>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
@@ -5930,75 +6611,65 @@
       <c r="N184" s="18"/>
       <c r="O184" s="22"/>
     </row>
-    <row r="185" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C185" s="7" t="s">
+    <row r="185" spans="3:15">
+      <c r="C185" s="5"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+      <c r="O185" s="22"/>
+    </row>
+    <row r="186" spans="3:15" ht="33.75" thickBot="1">
+      <c r="C186" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
-      <c r="H185" s="24"/>
-      <c r="I185" s="24"/>
-      <c r="J185" s="24"/>
-      <c r="K185" s="24"/>
-      <c r="L185" s="24"/>
-      <c r="M185" s="24"/>
-      <c r="N185" s="24"/>
-      <c r="O185" s="25"/>
-    </row>
-    <row r="186" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D186" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
+      <c r="O186" s="22"/>
+    </row>
     <row r="187" spans="3:15">
-      <c r="C187" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F187" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K187" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L187" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M187" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N187" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O187" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" t="s">
+        <v>68</v>
+      </c>
+      <c r="E187" s="14"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+      <c r="N187" s="18"/>
+      <c r="O187" s="22"/>
     </row>
     <row r="188" spans="3:15">
-      <c r="C188" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C188" s="13"/>
       <c r="D188" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>44</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E188" s="14"/>
       <c r="F188" s="18"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
@@ -6011,11 +6682,11 @@
       <c r="O188" s="22"/>
     </row>
     <row r="189" spans="3:15">
-      <c r="C189" s="13"/>
+      <c r="C189" s="5"/>
       <c r="D189" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E189" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="E189" s="11"/>
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
@@ -6028,11 +6699,11 @@
       <c r="O189" s="22"/>
     </row>
     <row r="190" spans="3:15">
-      <c r="C190" s="13"/>
-      <c r="D190" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E190" s="14"/>
+      <c r="C190" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="21"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="18"/>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
@@ -6044,65 +6715,75 @@
       <c r="N190" s="18"/>
       <c r="O190" s="22"/>
     </row>
-    <row r="191" spans="3:15">
-      <c r="C191" s="5"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="18"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" spans="3:15" ht="33.75" thickBot="1">
-      <c r="C192" s="16" t="s">
+    <row r="191" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C191" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D192" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E192" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="18"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="18"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="22"/>
-    </row>
+      <c r="D191" s="23"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="24"/>
+      <c r="O191" s="25"/>
+    </row>
+    <row r="192" spans="3:15" ht="17.25" thickBot="1"/>
     <row r="193" spans="3:15">
-      <c r="C193" s="13"/>
-      <c r="D193" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E193" s="14"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="22"/>
+      <c r="C193" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I193" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J193" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K193" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L193" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M193" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N193" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O193" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="194" spans="3:15">
-      <c r="C194" s="13"/>
+      <c r="C194" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="D194" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E194" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="F194" s="18"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
@@ -6115,9 +6796,11 @@
       <c r="O194" s="22"/>
     </row>
     <row r="195" spans="3:15">
-      <c r="C195" s="5"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="1"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E195" s="14"/>
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
@@ -6130,11 +6813,11 @@
       <c r="O195" s="22"/>
     </row>
     <row r="196" spans="3:15">
-      <c r="C196" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D196" s="21"/>
-      <c r="E196" s="1"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="14"/>
       <c r="F196" s="18"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
@@ -6146,22 +6829,343 @@
       <c r="N196" s="18"/>
       <c r="O196" s="22"/>
     </row>
-    <row r="197" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C197" s="7" t="s">
+    <row r="197" spans="3:15">
+      <c r="C197" s="5"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
+      <c r="O197" s="22"/>
+    </row>
+    <row r="198" spans="3:15" ht="33.75" thickBot="1">
+      <c r="C198" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D197" s="23"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="24"/>
-      <c r="I197" s="24"/>
-      <c r="J197" s="24"/>
-      <c r="K197" s="24"/>
-      <c r="L197" s="24"/>
-      <c r="M197" s="24"/>
-      <c r="N197" s="24"/>
-      <c r="O197" s="25"/>
+      <c r="D198" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F198" s="18"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+      <c r="O198" s="22"/>
+    </row>
+    <row r="199" spans="3:15">
+      <c r="C199" s="13"/>
+      <c r="D199" t="s">
+        <v>68</v>
+      </c>
+      <c r="E199" s="14"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+      <c r="O199" s="22"/>
+    </row>
+    <row r="200" spans="3:15">
+      <c r="C200" s="13"/>
+      <c r="D200" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="14"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="22"/>
+    </row>
+    <row r="201" spans="3:15">
+      <c r="C201" s="5"/>
+      <c r="D201" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+      <c r="O201" s="22"/>
+    </row>
+    <row r="202" spans="3:15">
+      <c r="C202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" s="21"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="22"/>
+    </row>
+    <row r="203" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C203" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" s="23"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="24"/>
+      <c r="O203" s="25"/>
+    </row>
+    <row r="204" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="205" spans="3:15">
+      <c r="C205" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I205" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J205" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K205" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L205" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M205" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N205" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O205" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="3:15">
+      <c r="C206" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="22"/>
+    </row>
+    <row r="207" spans="3:15">
+      <c r="C207" s="13"/>
+      <c r="D207" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="18"/>
+      <c r="O207" s="22"/>
+    </row>
+    <row r="208" spans="3:15">
+      <c r="C208" s="13"/>
+      <c r="D208" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="14"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18"/>
+      <c r="M208" s="18"/>
+      <c r="N208" s="18"/>
+      <c r="O208" s="22"/>
+    </row>
+    <row r="209" spans="3:15">
+      <c r="C209" s="5"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
+      <c r="N209" s="18"/>
+      <c r="O209" s="22"/>
+    </row>
+    <row r="210" spans="3:15" ht="33.75" thickBot="1">
+      <c r="C210" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="18"/>
+      <c r="K210" s="18"/>
+      <c r="L210" s="18"/>
+      <c r="M210" s="18"/>
+      <c r="N210" s="18"/>
+      <c r="O210" s="22"/>
+    </row>
+    <row r="211" spans="3:15">
+      <c r="C211" s="13"/>
+      <c r="D211" t="s">
+        <v>68</v>
+      </c>
+      <c r="E211" s="14"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="18"/>
+      <c r="K211" s="18"/>
+      <c r="L211" s="18"/>
+      <c r="M211" s="18"/>
+      <c r="N211" s="18"/>
+      <c r="O211" s="22"/>
+    </row>
+    <row r="212" spans="3:15">
+      <c r="C212" s="13"/>
+      <c r="D212" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="14"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="18"/>
+      <c r="M212" s="18"/>
+      <c r="N212" s="18"/>
+      <c r="O212" s="22"/>
+    </row>
+    <row r="213" spans="3:15">
+      <c r="C213" s="5"/>
+      <c r="D213" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+      <c r="J213" s="18"/>
+      <c r="K213" s="18"/>
+      <c r="L213" s="18"/>
+      <c r="M213" s="18"/>
+      <c r="N213" s="18"/>
+      <c r="O213" s="22"/>
+    </row>
+    <row r="214" spans="3:15">
+      <c r="C214" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="21"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="18"/>
+      <c r="M214" s="18"/>
+      <c r="N214" s="18"/>
+      <c r="O214" s="22"/>
+    </row>
+    <row r="215" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C215" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D215" s="23"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="24"/>
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+      <c r="N215" s="24"/>
+      <c r="O215" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/근전도센서 분석.xlsx
+++ b/근전도센서 분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\NewMeta_HapticGloves\Metaverse_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225776CB-74D4-408C-A7CF-6A477E29A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1FD86-2765-40DD-8BD0-F729F6EFFC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="81">
   <si>
     <t xml:space="preserve">4. 동일한 Task를 했을 때 평균값 </t>
   </si>
@@ -222,31 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4회</t>
-  </si>
-  <si>
-    <t>5회</t>
-  </si>
-  <si>
-    <t>6회</t>
-  </si>
-  <si>
-    <t>7회</t>
-  </si>
-  <si>
-    <t>8회</t>
-  </si>
-  <si>
-    <t>9회</t>
-  </si>
-  <si>
-    <t>10회</t>
-  </si>
-  <si>
     <t>참가자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,23 +242,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨간 네모 빼기</t>
+    <t>말랑한 물체 쥐기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨간 네모 넣기</t>
+    <t>중간 물체 쥐기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초록 세모 빼기</t>
+    <t>딱딱한 물체 쥐기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초록 세모 넣기</t>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>햅틱디바이스</t>
+    <t>공 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무판 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱딱한 물체 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Friction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 Grab
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 Pick
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 Grab
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 Pick
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 Grab
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 Pick
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회 Grab
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회 Pick
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회 Grab
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회 Pick
+Avg/Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.45/38.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grab/Pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.84/361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.95/4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -306,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,14 +385,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -512,40 +560,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
@@ -588,16 +606,160 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -631,10 +793,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -915,24 +1094,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV215"/>
+  <dimension ref="A1:AV197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC80" sqref="AC80"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="7.875" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1087,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:48">
+    <row r="35" spans="3:48">
       <c r="C35" t="s">
         <v>24</v>
       </c>
@@ -1113,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:48">
+    <row r="36" spans="3:48">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:48">
+    <row r="37" spans="3:48">
       <c r="D37" t="s">
         <v>20</v>
       </c>
@@ -1132,12 +1310,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:48">
+    <row r="38" spans="3:48">
       <c r="D38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:48">
+    <row r="39" spans="3:48">
       <c r="D39" t="s">
         <v>22</v>
       </c>
@@ -1145,35 +1323,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:48">
+    <row r="40" spans="3:48">
       <c r="N40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:48" ht="17.25" thickBot="1">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-    </row>
-    <row r="45" spans="2:48">
-      <c r="B45" s="26"/>
+    <row r="44" spans="3:48" ht="17.25" thickBot="1"/>
+    <row r="45" spans="3:48">
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>19</v>
@@ -1212,10 +1373,10 @@
         <v>52</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="U45" s="10" t="s">
         <v>19</v>
@@ -1254,10 +1415,10 @@
         <v>52</v>
       </c>
       <c r="AI45" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AJ45" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AK45" s="10" t="s">
         <v>19</v>
@@ -1296,13 +1457,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:48">
-      <c r="B46" s="26"/>
+    <row r="46" spans="3:48">
       <c r="C46" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>29</v>
+      <c r="D46" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>37</v>
@@ -1389,11 +1549,10 @@
       </c>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="2:48">
-      <c r="B47" s="26"/>
+    <row r="47" spans="3:48">
       <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
-        <v>30</v>
+      <c r="D47" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -1440,11 +1599,10 @@
       <c r="AU47" s="14"/>
       <c r="AV47" s="15"/>
     </row>
-    <row r="48" spans="2:48">
-      <c r="B48" s="26"/>
+    <row r="48" spans="3:48">
       <c r="C48" s="13"/>
-      <c r="D48" s="14" t="s">
-        <v>31</v>
+      <c r="D48" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -1491,8 +1649,7 @@
       <c r="AU48" s="14"/>
       <c r="AV48" s="15"/>
     </row>
-    <row r="49" spans="2:48">
-      <c r="B49" s="26"/>
+    <row r="49" spans="3:48">
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="11"/>
@@ -1536,8 +1693,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" spans="2:48" ht="66.75" thickBot="1">
-      <c r="B50" s="26"/>
+    <row r="50" spans="3:48" ht="66.75" thickBot="1">
       <c r="C50" s="16" t="s">
         <v>49</v>
       </c>
@@ -1629,8 +1785,7 @@
       </c>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="2:48">
-      <c r="B51" s="26"/>
+    <row r="51" spans="3:48">
       <c r="C51" s="13"/>
       <c r="D51" s="14" t="s">
         <v>46</v>
@@ -1680,8 +1835,7 @@
       <c r="AU51" s="14"/>
       <c r="AV51" s="15"/>
     </row>
-    <row r="52" spans="2:48">
-      <c r="B52" s="26"/>
+    <row r="52" spans="3:48">
       <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
         <v>47</v>
@@ -1731,8 +1885,7 @@
       <c r="AU52" s="14"/>
       <c r="AV52" s="15"/>
     </row>
-    <row r="53" spans="2:48">
-      <c r="B53" s="26"/>
+    <row r="53" spans="3:48">
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="11"/>
@@ -1776,8 +1929,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="2:48">
-      <c r="B54" s="26"/>
+    <row r="54" spans="3:48">
       <c r="C54" s="5" t="s">
         <v>48</v>
       </c>
@@ -1827,8 +1979,7 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="2:48" ht="17.25" thickBot="1">
-      <c r="B55" s="26"/>
+    <row r="55" spans="3:48" ht="17.25" thickBot="1">
       <c r="C55" s="7" t="s">
         <v>49</v>
       </c>
@@ -1878,144 +2029,137 @@
       <c r="AU55" s="8"/>
       <c r="AV55" s="9"/>
     </row>
-    <row r="56" spans="2:48">
-      <c r="B56" s="26"/>
-    </row>
-    <row r="57" spans="2:48" ht="17.25" thickBot="1">
-      <c r="B57" s="26"/>
-    </row>
-    <row r="58" spans="2:48">
-      <c r="B58" s="26"/>
+    <row r="57" spans="3:48" ht="17.25" thickBot="1"/>
+    <row r="58" spans="3:48" ht="33">
       <c r="C58" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="19" t="s">
+      <c r="F58" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="19" t="s">
+      <c r="T58" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N58" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="U58" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X58" s="19" t="s">
+      <c r="V58" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X58" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y58" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB58" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z58" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA58" s="19" t="s">
+      <c r="AJ58" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC58" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD58" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE58" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ58" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AK58" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AL58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN58" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP58" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ58" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS58" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT58" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU58" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:48">
-      <c r="B59" s="26"/>
+      <c r="AL58" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN58" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO58" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR58" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU58" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="3:48">
       <c r="C59" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>29</v>
+      <c r="D59" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
@@ -2024,17 +2168,17 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="22"/>
+      <c r="O59" s="32"/>
       <c r="S59" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T59" s="21" t="s">
+      <c r="T59" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V59" s="18"/>
+      <c r="V59" s="31"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
       <c r="Y59" s="18"/>
@@ -2043,17 +2187,17 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18"/>
-      <c r="AE59" s="22"/>
+      <c r="AE59" s="32"/>
       <c r="AI59" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ59" s="21" t="s">
+      <c r="AJ59" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AK59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AL59" s="18"/>
+      <c r="AL59" s="31"/>
       <c r="AM59" s="18"/>
       <c r="AN59" s="18"/>
       <c r="AO59" s="18"/>
@@ -2062,16 +2206,15 @@
       <c r="AR59" s="18"/>
       <c r="AS59" s="18"/>
       <c r="AT59" s="18"/>
-      <c r="AU59" s="22"/>
-    </row>
-    <row r="60" spans="2:48">
-      <c r="B60" s="26"/>
+      <c r="AU59" s="32"/>
+    </row>
+    <row r="60" spans="3:48">
       <c r="C60" s="13"/>
-      <c r="D60" s="21" t="s">
-        <v>30</v>
+      <c r="D60" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="31"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -2080,13 +2223,13 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
-      <c r="O60" s="22"/>
+      <c r="O60" s="32"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="21" t="s">
+      <c r="T60" s="20" t="s">
         <v>30</v>
       </c>
       <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="V60" s="31"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
       <c r="Y60" s="18"/>
@@ -2095,13 +2238,13 @@
       <c r="AB60" s="18"/>
       <c r="AC60" s="18"/>
       <c r="AD60" s="18"/>
-      <c r="AE60" s="22"/>
+      <c r="AE60" s="32"/>
       <c r="AI60" s="13"/>
-      <c r="AJ60" s="21" t="s">
+      <c r="AJ60" s="20" t="s">
         <v>30</v>
       </c>
       <c r="AK60" s="18"/>
-      <c r="AL60" s="18"/>
+      <c r="AL60" s="31"/>
       <c r="AM60" s="18"/>
       <c r="AN60" s="18"/>
       <c r="AO60" s="18"/>
@@ -2110,16 +2253,15 @@
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
       <c r="AT60" s="18"/>
-      <c r="AU60" s="22"/>
-    </row>
-    <row r="61" spans="2:48">
-      <c r="B61" s="26"/>
+      <c r="AU60" s="32"/>
+    </row>
+    <row r="61" spans="3:48">
       <c r="C61" s="13"/>
-      <c r="D61" s="21" t="s">
-        <v>31</v>
+      <c r="D61" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="31"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
@@ -2128,13 +2270,13 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
-      <c r="O61" s="22"/>
+      <c r="O61" s="32"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="21" t="s">
+      <c r="T61" s="20" t="s">
         <v>31</v>
       </c>
       <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="V61" s="31"/>
       <c r="W61" s="18"/>
       <c r="X61" s="18"/>
       <c r="Y61" s="18"/>
@@ -2143,13 +2285,13 @@
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
-      <c r="AE61" s="22"/>
+      <c r="AE61" s="32"/>
       <c r="AI61" s="13"/>
-      <c r="AJ61" s="21" t="s">
+      <c r="AJ61" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AK61" s="18"/>
-      <c r="AL61" s="18"/>
+      <c r="AL61" s="31"/>
       <c r="AM61" s="18"/>
       <c r="AN61" s="18"/>
       <c r="AO61" s="18"/>
@@ -2158,14 +2300,13 @@
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
       <c r="AT61" s="18"/>
-      <c r="AU61" s="22"/>
-    </row>
-    <row r="62" spans="2:48">
-      <c r="B62" s="26"/>
+      <c r="AU61" s="32"/>
+    </row>
+    <row r="62" spans="3:48">
       <c r="C62" s="5"/>
-      <c r="D62" s="21"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="31"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
@@ -2174,11 +2315,11 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
-      <c r="O62" s="22"/>
+      <c r="O62" s="32"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="21"/>
+      <c r="T62" s="20"/>
       <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
+      <c r="V62" s="31"/>
       <c r="W62" s="18"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="18"/>
@@ -2187,11 +2328,11 @@
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
       <c r="AD62" s="18"/>
-      <c r="AE62" s="22"/>
+      <c r="AE62" s="32"/>
       <c r="AI62" s="5"/>
-      <c r="AJ62" s="21"/>
+      <c r="AJ62" s="20"/>
       <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
+      <c r="AL62" s="31"/>
       <c r="AM62" s="18"/>
       <c r="AN62" s="18"/>
       <c r="AO62" s="18"/>
@@ -2200,20 +2341,19 @@
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
       <c r="AT62" s="18"/>
-      <c r="AU62" s="22"/>
-    </row>
-    <row r="63" spans="2:48" ht="17.25" thickBot="1">
-      <c r="B63" s="26"/>
+      <c r="AU62" s="32"/>
+    </row>
+    <row r="63" spans="3:48" ht="17.25" thickBot="1">
       <c r="C63" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>67</v>
+      <c r="D63" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="18"/>
+      <c r="F63" s="31"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
@@ -2222,17 +2362,17 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
-      <c r="O63" s="22"/>
+      <c r="O63" s="32"/>
       <c r="S63" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T63" s="21" t="s">
-        <v>67</v>
+      <c r="T63" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="U63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V63" s="18"/>
+      <c r="V63" s="31"/>
       <c r="W63" s="18"/>
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
@@ -2241,17 +2381,17 @@
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
       <c r="AD63" s="18"/>
-      <c r="AE63" s="22"/>
+      <c r="AE63" s="32"/>
       <c r="AI63" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ63" s="21" t="s">
+      <c r="AJ63" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AK63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AL63" s="18"/>
+      <c r="AL63" s="31"/>
       <c r="AM63" s="18"/>
       <c r="AN63" s="18"/>
       <c r="AO63" s="18"/>
@@ -2260,16 +2400,15 @@
       <c r="AR63" s="18"/>
       <c r="AS63" s="18"/>
       <c r="AT63" s="18"/>
-      <c r="AU63" s="22"/>
-    </row>
-    <row r="64" spans="2:48">
-      <c r="B64" s="26"/>
+      <c r="AU63" s="32"/>
+    </row>
+    <row r="64" spans="3:48">
       <c r="C64" s="13"/>
-      <c r="D64" t="s">
-        <v>68</v>
+      <c r="D64" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="31"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
@@ -2278,13 +2417,13 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
-      <c r="O64" s="22"/>
+      <c r="O64" s="32"/>
       <c r="S64" s="13"/>
-      <c r="T64" t="s">
-        <v>68</v>
+      <c r="T64" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
+      <c r="V64" s="31"/>
       <c r="W64" s="18"/>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
@@ -2293,13 +2432,13 @@
       <c r="AB64" s="18"/>
       <c r="AC64" s="18"/>
       <c r="AD64" s="18"/>
-      <c r="AE64" s="22"/>
+      <c r="AE64" s="32"/>
       <c r="AI64" s="13"/>
-      <c r="AJ64" s="21" t="s">
+      <c r="AJ64" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
+      <c r="AL64" s="31"/>
       <c r="AM64" s="18"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="18"/>
@@ -2308,16 +2447,15 @@
       <c r="AR64" s="18"/>
       <c r="AS64" s="18"/>
       <c r="AT64" s="18"/>
-      <c r="AU64" s="22"/>
-    </row>
-    <row r="65" spans="2:47">
-      <c r="B65" s="26"/>
+      <c r="AU64" s="32"/>
+    </row>
+    <row r="65" spans="3:47">
       <c r="C65" s="13"/>
-      <c r="D65" s="21" t="s">
-        <v>69</v>
+      <c r="D65" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="31"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
@@ -2326,13 +2464,13 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="22"/>
+      <c r="O65" s="32"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="21" t="s">
-        <v>69</v>
+      <c r="T65" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
+      <c r="V65" s="31"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
@@ -2341,13 +2479,13 @@
       <c r="AB65" s="18"/>
       <c r="AC65" s="18"/>
       <c r="AD65" s="18"/>
-      <c r="AE65" s="22"/>
+      <c r="AE65" s="32"/>
       <c r="AI65" s="13"/>
-      <c r="AJ65" s="21" t="s">
+      <c r="AJ65" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AK65" s="18"/>
-      <c r="AL65" s="18"/>
+      <c r="AL65" s="31"/>
       <c r="AM65" s="18"/>
       <c r="AN65" s="18"/>
       <c r="AO65" s="18"/>
@@ -2356,16 +2494,13 @@
       <c r="AR65" s="18"/>
       <c r="AS65" s="18"/>
       <c r="AT65" s="18"/>
-      <c r="AU65" s="22"/>
-    </row>
-    <row r="66" spans="2:47">
-      <c r="B66" s="26"/>
+      <c r="AU65" s="32"/>
+    </row>
+    <row r="66" spans="3:47">
       <c r="C66" s="5"/>
-      <c r="D66" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="D66" s="20"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="31"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
@@ -2374,13 +2509,11 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
-      <c r="O66" s="22"/>
+      <c r="O66" s="32"/>
       <c r="S66" s="5"/>
-      <c r="T66" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="T66" s="20"/>
       <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
+      <c r="V66" s="31"/>
       <c r="W66" s="18"/>
       <c r="X66" s="18"/>
       <c r="Y66" s="18"/>
@@ -2389,11 +2522,11 @@
       <c r="AB66" s="18"/>
       <c r="AC66" s="18"/>
       <c r="AD66" s="18"/>
-      <c r="AE66" s="22"/>
+      <c r="AE66" s="32"/>
       <c r="AI66" s="5"/>
-      <c r="AJ66" s="21"/>
+      <c r="AJ66" s="20"/>
       <c r="AK66" s="18"/>
-      <c r="AL66" s="18"/>
+      <c r="AL66" s="31"/>
       <c r="AM66" s="18"/>
       <c r="AN66" s="18"/>
       <c r="AO66" s="18"/>
@@ -2402,16 +2535,15 @@
       <c r="AR66" s="18"/>
       <c r="AS66" s="18"/>
       <c r="AT66" s="18"/>
-      <c r="AU66" s="22"/>
-    </row>
-    <row r="67" spans="2:47">
-      <c r="B67" s="26"/>
+      <c r="AU66" s="32"/>
+    </row>
+    <row r="67" spans="3:47">
       <c r="C67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="31"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
@@ -2420,13 +2552,13 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
-      <c r="O67" s="22"/>
+      <c r="O67" s="32"/>
       <c r="S67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T67" s="21"/>
+      <c r="T67" s="20"/>
       <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
+      <c r="V67" s="31"/>
       <c r="W67" s="18"/>
       <c r="X67" s="18"/>
       <c r="Y67" s="18"/>
@@ -2435,13 +2567,13 @@
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
       <c r="AD67" s="18"/>
-      <c r="AE67" s="22"/>
+      <c r="AE67" s="32"/>
       <c r="AI67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ67" s="21"/>
+      <c r="AJ67" s="20"/>
       <c r="AK67" s="18"/>
-      <c r="AL67" s="18"/>
+      <c r="AL67" s="31"/>
       <c r="AM67" s="18"/>
       <c r="AN67" s="18"/>
       <c r="AO67" s="18"/>
@@ -2450,191 +2582,186 @@
       <c r="AR67" s="18"/>
       <c r="AS67" s="18"/>
       <c r="AT67" s="18"/>
-      <c r="AU67" s="22"/>
-    </row>
-    <row r="68" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B68" s="26"/>
+      <c r="AU67" s="32"/>
+    </row>
+    <row r="68" spans="3:47" ht="17.25" thickBot="1">
       <c r="C68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="25"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="35"/>
       <c r="S68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="23"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="25"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="35"/>
       <c r="AI68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ68" s="23"/>
-      <c r="AK68" s="24"/>
-      <c r="AL68" s="24"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="24"/>
-      <c r="AO68" s="24"/>
-      <c r="AP68" s="24"/>
-      <c r="AQ68" s="24"/>
-      <c r="AR68" s="24"/>
-      <c r="AS68" s="24"/>
-      <c r="AT68" s="24"/>
-      <c r="AU68" s="25"/>
-    </row>
-    <row r="69" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B69" s="26"/>
-    </row>
-    <row r="70" spans="2:47">
-      <c r="B70" s="26"/>
+      <c r="AJ68" s="21"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="33"/>
+      <c r="AM68" s="34"/>
+      <c r="AN68" s="34"/>
+      <c r="AO68" s="34"/>
+      <c r="AP68" s="34"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="34"/>
+      <c r="AS68" s="34"/>
+      <c r="AT68" s="34"/>
+      <c r="AU68" s="35"/>
+    </row>
+    <row r="69" spans="3:47" ht="17.25" thickBot="1"/>
+    <row r="70" spans="3:47" ht="33">
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="19" t="s">
+      <c r="F70" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I70" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J70" s="19" t="s">
+      <c r="T70" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O70" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="U70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W70" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X70" s="19" t="s">
+      <c r="V70" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W70" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X70" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y70" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z70" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA70" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB70" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC70" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE70" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y70" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z70" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA70" s="19" t="s">
+      <c r="AJ70" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB70" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC70" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD70" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE70" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ70" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AK70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AL70" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM70" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO70" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP70" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ70" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR70" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS70" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT70" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU70" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="2:47">
-      <c r="B71" s="26"/>
+      <c r="AL70" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM70" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN70" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO70" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP70" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ70" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR70" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS70" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU70" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="3:47">
       <c r="C71" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>29</v>
+      <c r="D71" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="31"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
@@ -2643,17 +2770,17 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
-      <c r="O71" s="22"/>
+      <c r="O71" s="32"/>
       <c r="S71" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T71" s="21" t="s">
+      <c r="T71" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U71" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="18"/>
+      <c r="V71" s="31"/>
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
@@ -2662,17 +2789,17 @@
       <c r="AB71" s="18"/>
       <c r="AC71" s="18"/>
       <c r="AD71" s="18"/>
-      <c r="AE71" s="22"/>
+      <c r="AE71" s="32"/>
       <c r="AI71" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ71" s="21" t="s">
+      <c r="AJ71" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AK71" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="18"/>
+      <c r="AL71" s="31"/>
       <c r="AM71" s="18"/>
       <c r="AN71" s="18"/>
       <c r="AO71" s="18"/>
@@ -2681,16 +2808,15 @@
       <c r="AR71" s="18"/>
       <c r="AS71" s="18"/>
       <c r="AT71" s="18"/>
-      <c r="AU71" s="22"/>
-    </row>
-    <row r="72" spans="2:47">
-      <c r="B72" s="26"/>
+      <c r="AU71" s="32"/>
+    </row>
+    <row r="72" spans="3:47">
       <c r="C72" s="13"/>
-      <c r="D72" s="21" t="s">
-        <v>30</v>
+      <c r="D72" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E72" s="14"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="31"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
@@ -2699,13 +2825,13 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
-      <c r="O72" s="22"/>
+      <c r="O72" s="32"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="21" t="s">
+      <c r="T72" s="20" t="s">
         <v>30</v>
       </c>
       <c r="U72" s="14"/>
-      <c r="V72" s="18"/>
+      <c r="V72" s="31"/>
       <c r="W72" s="18"/>
       <c r="X72" s="18"/>
       <c r="Y72" s="18"/>
@@ -2714,13 +2840,13 @@
       <c r="AB72" s="18"/>
       <c r="AC72" s="18"/>
       <c r="AD72" s="18"/>
-      <c r="AE72" s="22"/>
+      <c r="AE72" s="32"/>
       <c r="AI72" s="13"/>
-      <c r="AJ72" s="21" t="s">
+      <c r="AJ72" s="20" t="s">
         <v>30</v>
       </c>
       <c r="AK72" s="14"/>
-      <c r="AL72" s="18"/>
+      <c r="AL72" s="31"/>
       <c r="AM72" s="18"/>
       <c r="AN72" s="18"/>
       <c r="AO72" s="18"/>
@@ -2729,16 +2855,15 @@
       <c r="AR72" s="18"/>
       <c r="AS72" s="18"/>
       <c r="AT72" s="18"/>
-      <c r="AU72" s="22"/>
-    </row>
-    <row r="73" spans="2:47">
-      <c r="B73" s="26"/>
+      <c r="AU72" s="32"/>
+    </row>
+    <row r="73" spans="3:47">
       <c r="C73" s="13"/>
-      <c r="D73" s="21" t="s">
-        <v>31</v>
+      <c r="D73" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="31"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
@@ -2747,13 +2872,13 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
-      <c r="O73" s="22"/>
+      <c r="O73" s="32"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="21" t="s">
+      <c r="T73" s="20" t="s">
         <v>31</v>
       </c>
       <c r="U73" s="14"/>
-      <c r="V73" s="18"/>
+      <c r="V73" s="31"/>
       <c r="W73" s="18"/>
       <c r="X73" s="18"/>
       <c r="Y73" s="18"/>
@@ -2762,13 +2887,13 @@
       <c r="AB73" s="18"/>
       <c r="AC73" s="18"/>
       <c r="AD73" s="18"/>
-      <c r="AE73" s="22"/>
+      <c r="AE73" s="32"/>
       <c r="AI73" s="13"/>
-      <c r="AJ73" s="21" t="s">
+      <c r="AJ73" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AK73" s="14"/>
-      <c r="AL73" s="18"/>
+      <c r="AL73" s="31"/>
       <c r="AM73" s="18"/>
       <c r="AN73" s="18"/>
       <c r="AO73" s="18"/>
@@ -2777,14 +2902,13 @@
       <c r="AR73" s="18"/>
       <c r="AS73" s="18"/>
       <c r="AT73" s="18"/>
-      <c r="AU73" s="22"/>
-    </row>
-    <row r="74" spans="2:47">
-      <c r="B74" s="26"/>
+      <c r="AU73" s="32"/>
+    </row>
+    <row r="74" spans="3:47">
       <c r="C74" s="5"/>
-      <c r="D74" s="21"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="18"/>
+      <c r="F74" s="31"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
@@ -2793,11 +2917,11 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
-      <c r="O74" s="22"/>
+      <c r="O74" s="32"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="21"/>
+      <c r="T74" s="20"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="18"/>
+      <c r="V74" s="31"/>
       <c r="W74" s="18"/>
       <c r="X74" s="18"/>
       <c r="Y74" s="18"/>
@@ -2806,11 +2930,11 @@
       <c r="AB74" s="18"/>
       <c r="AC74" s="18"/>
       <c r="AD74" s="18"/>
-      <c r="AE74" s="22"/>
+      <c r="AE74" s="32"/>
       <c r="AI74" s="5"/>
-      <c r="AJ74" s="21"/>
+      <c r="AJ74" s="20"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="18"/>
+      <c r="AL74" s="31"/>
       <c r="AM74" s="18"/>
       <c r="AN74" s="18"/>
       <c r="AO74" s="18"/>
@@ -2819,20 +2943,19 @@
       <c r="AR74" s="18"/>
       <c r="AS74" s="18"/>
       <c r="AT74" s="18"/>
-      <c r="AU74" s="22"/>
-    </row>
-    <row r="75" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B75" s="26"/>
+      <c r="AU74" s="32"/>
+    </row>
+    <row r="75" spans="3:47" ht="17.25" thickBot="1">
       <c r="C75" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="21" t="s">
-        <v>67</v>
+      <c r="D75" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="18"/>
+      <c r="F75" s="31"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
@@ -2841,17 +2964,17 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
-      <c r="O75" s="22"/>
+      <c r="O75" s="32"/>
       <c r="S75" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T75" s="21" t="s">
-        <v>67</v>
+      <c r="T75" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="U75" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="V75" s="18"/>
+      <c r="V75" s="31"/>
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
       <c r="Y75" s="18"/>
@@ -2860,17 +2983,17 @@
       <c r="AB75" s="18"/>
       <c r="AC75" s="18"/>
       <c r="AD75" s="18"/>
-      <c r="AE75" s="22"/>
+      <c r="AE75" s="32"/>
       <c r="AI75" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ75" s="21" t="s">
+      <c r="AJ75" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AK75" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL75" s="18"/>
+      <c r="AL75" s="31"/>
       <c r="AM75" s="18"/>
       <c r="AN75" s="18"/>
       <c r="AO75" s="18"/>
@@ -2879,16 +3002,15 @@
       <c r="AR75" s="18"/>
       <c r="AS75" s="18"/>
       <c r="AT75" s="18"/>
-      <c r="AU75" s="22"/>
-    </row>
-    <row r="76" spans="2:47">
-      <c r="B76" s="26"/>
+      <c r="AU75" s="32"/>
+    </row>
+    <row r="76" spans="3:47">
       <c r="C76" s="13"/>
-      <c r="D76" t="s">
-        <v>68</v>
+      <c r="D76" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E76" s="14"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="31"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
@@ -2897,13 +3019,13 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
-      <c r="O76" s="22"/>
+      <c r="O76" s="32"/>
       <c r="S76" s="13"/>
-      <c r="T76" t="s">
-        <v>68</v>
+      <c r="T76" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="U76" s="14"/>
-      <c r="V76" s="18"/>
+      <c r="V76" s="31"/>
       <c r="W76" s="18"/>
       <c r="X76" s="18"/>
       <c r="Y76" s="18"/>
@@ -2912,13 +3034,13 @@
       <c r="AB76" s="18"/>
       <c r="AC76" s="18"/>
       <c r="AD76" s="18"/>
-      <c r="AE76" s="22"/>
+      <c r="AE76" s="32"/>
       <c r="AI76" s="13"/>
-      <c r="AJ76" s="21" t="s">
+      <c r="AJ76" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AK76" s="14"/>
-      <c r="AL76" s="18"/>
+      <c r="AL76" s="31"/>
       <c r="AM76" s="18"/>
       <c r="AN76" s="18"/>
       <c r="AO76" s="18"/>
@@ -2927,16 +3049,15 @@
       <c r="AR76" s="18"/>
       <c r="AS76" s="18"/>
       <c r="AT76" s="18"/>
-      <c r="AU76" s="22"/>
-    </row>
-    <row r="77" spans="2:47">
-      <c r="B77" s="26"/>
+      <c r="AU76" s="32"/>
+    </row>
+    <row r="77" spans="3:47">
       <c r="C77" s="13"/>
-      <c r="D77" s="21" t="s">
-        <v>69</v>
+      <c r="D77" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E77" s="14"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="31"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
@@ -2945,13 +3066,13 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
       <c r="N77" s="18"/>
-      <c r="O77" s="22"/>
+      <c r="O77" s="32"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="21" t="s">
-        <v>69</v>
+      <c r="T77" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="U77" s="14"/>
-      <c r="V77" s="18"/>
+      <c r="V77" s="31"/>
       <c r="W77" s="18"/>
       <c r="X77" s="18"/>
       <c r="Y77" s="18"/>
@@ -2960,13 +3081,13 @@
       <c r="AB77" s="18"/>
       <c r="AC77" s="18"/>
       <c r="AD77" s="18"/>
-      <c r="AE77" s="22"/>
+      <c r="AE77" s="32"/>
       <c r="AI77" s="13"/>
-      <c r="AJ77" s="21" t="s">
+      <c r="AJ77" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AK77" s="14"/>
-      <c r="AL77" s="18"/>
+      <c r="AL77" s="31"/>
       <c r="AM77" s="18"/>
       <c r="AN77" s="18"/>
       <c r="AO77" s="18"/>
@@ -2975,16 +3096,13 @@
       <c r="AR77" s="18"/>
       <c r="AS77" s="18"/>
       <c r="AT77" s="18"/>
-      <c r="AU77" s="22"/>
-    </row>
-    <row r="78" spans="2:47">
-      <c r="B78" s="26"/>
+      <c r="AU77" s="32"/>
+    </row>
+    <row r="78" spans="3:47">
       <c r="C78" s="5"/>
-      <c r="D78" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="D78" s="20"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="31"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -2993,13 +3111,11 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
-      <c r="O78" s="22"/>
+      <c r="O78" s="32"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="T78" s="20"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="18"/>
+      <c r="V78" s="31"/>
       <c r="W78" s="18"/>
       <c r="X78" s="18"/>
       <c r="Y78" s="18"/>
@@ -3008,11 +3124,11 @@
       <c r="AB78" s="18"/>
       <c r="AC78" s="18"/>
       <c r="AD78" s="18"/>
-      <c r="AE78" s="22"/>
+      <c r="AE78" s="32"/>
       <c r="AI78" s="5"/>
-      <c r="AJ78" s="21"/>
+      <c r="AJ78" s="20"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="18"/>
+      <c r="AL78" s="31"/>
       <c r="AM78" s="18"/>
       <c r="AN78" s="18"/>
       <c r="AO78" s="18"/>
@@ -3021,16 +3137,15 @@
       <c r="AR78" s="18"/>
       <c r="AS78" s="18"/>
       <c r="AT78" s="18"/>
-      <c r="AU78" s="22"/>
-    </row>
-    <row r="79" spans="2:47">
-      <c r="B79" s="26"/>
+      <c r="AU78" s="32"/>
+    </row>
+    <row r="79" spans="3:47">
       <c r="C79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="21"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="31"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -3039,13 +3154,13 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
-      <c r="O79" s="22"/>
+      <c r="O79" s="32"/>
       <c r="S79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T79" s="21"/>
+      <c r="T79" s="20"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="18"/>
+      <c r="V79" s="31"/>
       <c r="W79" s="18"/>
       <c r="X79" s="18"/>
       <c r="Y79" s="18"/>
@@ -3054,13 +3169,13 @@
       <c r="AB79" s="18"/>
       <c r="AC79" s="18"/>
       <c r="AD79" s="18"/>
-      <c r="AE79" s="22"/>
+      <c r="AE79" s="32"/>
       <c r="AI79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ79" s="21"/>
+      <c r="AJ79" s="20"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="18"/>
+      <c r="AL79" s="31"/>
       <c r="AM79" s="18"/>
       <c r="AN79" s="18"/>
       <c r="AO79" s="18"/>
@@ -3069,191 +3184,186 @@
       <c r="AR79" s="18"/>
       <c r="AS79" s="18"/>
       <c r="AT79" s="18"/>
-      <c r="AU79" s="22"/>
-    </row>
-    <row r="80" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B80" s="26"/>
+      <c r="AU79" s="32"/>
+    </row>
+    <row r="80" spans="3:47" ht="17.25" thickBot="1">
       <c r="C80" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="23"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="25"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="35"/>
       <c r="S80" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T80" s="23"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="25"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="35"/>
       <c r="AI80" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ80" s="23"/>
+      <c r="AJ80" s="21"/>
       <c r="AK80" s="8"/>
-      <c r="AL80" s="24"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="24"/>
-      <c r="AO80" s="24"/>
-      <c r="AP80" s="24"/>
-      <c r="AQ80" s="24"/>
-      <c r="AR80" s="24"/>
-      <c r="AS80" s="24"/>
-      <c r="AT80" s="24"/>
-      <c r="AU80" s="25"/>
-    </row>
-    <row r="81" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B81" s="26"/>
-    </row>
-    <row r="82" spans="2:47">
-      <c r="B82" s="26"/>
+      <c r="AL80" s="33"/>
+      <c r="AM80" s="34"/>
+      <c r="AN80" s="34"/>
+      <c r="AO80" s="34"/>
+      <c r="AP80" s="34"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="34"/>
+      <c r="AS80" s="34"/>
+      <c r="AT80" s="34"/>
+      <c r="AU80" s="35"/>
+    </row>
+    <row r="81" spans="3:47" ht="17.25" thickBot="1"/>
+    <row r="82" spans="3:47" ht="33">
       <c r="C82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="19" t="s">
+      <c r="F82" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N82" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I82" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J82" s="19" t="s">
+      <c r="T82" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M82" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O82" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="U82" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="V82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W82" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X82" s="19" t="s">
+      <c r="V82" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W82" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X82" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y82" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z82" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA82" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB82" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC82" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD82" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y82" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z82" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA82" s="19" t="s">
+      <c r="AJ82" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB82" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC82" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD82" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE82" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ82" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AK82" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM82" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN82" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO82" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP82" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ82" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR82" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT82" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU82" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="2:47">
-      <c r="B83" s="26"/>
+      <c r="AL82" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM82" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN82" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO82" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP82" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ82" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR82" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS82" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT82" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU82" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="3:47">
       <c r="C83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>29</v>
+      <c r="D83" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="18"/>
+      <c r="F83" s="31"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
@@ -3262,17 +3372,17 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
-      <c r="O83" s="22"/>
+      <c r="O83" s="32"/>
       <c r="S83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T83" s="21" t="s">
+      <c r="T83" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U83" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V83" s="18"/>
+      <c r="V83" s="31"/>
       <c r="W83" s="18"/>
       <c r="X83" s="18"/>
       <c r="Y83" s="18"/>
@@ -3281,17 +3391,17 @@
       <c r="AB83" s="18"/>
       <c r="AC83" s="18"/>
       <c r="AD83" s="18"/>
-      <c r="AE83" s="22"/>
+      <c r="AE83" s="32"/>
       <c r="AI83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ83" s="21" t="s">
+      <c r="AJ83" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AK83" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AL83" s="18"/>
+      <c r="AL83" s="31"/>
       <c r="AM83" s="18"/>
       <c r="AN83" s="18"/>
       <c r="AO83" s="18"/>
@@ -3300,16 +3410,15 @@
       <c r="AR83" s="18"/>
       <c r="AS83" s="18"/>
       <c r="AT83" s="18"/>
-      <c r="AU83" s="22"/>
-    </row>
-    <row r="84" spans="2:47">
-      <c r="B84" s="26"/>
+      <c r="AU83" s="32"/>
+    </row>
+    <row r="84" spans="3:47">
       <c r="C84" s="13"/>
-      <c r="D84" s="21" t="s">
-        <v>30</v>
+      <c r="D84" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E84" s="14"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="31"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
@@ -3318,13 +3427,13 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
-      <c r="O84" s="22"/>
+      <c r="O84" s="32"/>
       <c r="S84" s="13"/>
-      <c r="T84" s="21" t="s">
+      <c r="T84" s="20" t="s">
         <v>30</v>
       </c>
       <c r="U84" s="14"/>
-      <c r="V84" s="18"/>
+      <c r="V84" s="31"/>
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
       <c r="Y84" s="18"/>
@@ -3333,13 +3442,13 @@
       <c r="AB84" s="18"/>
       <c r="AC84" s="18"/>
       <c r="AD84" s="18"/>
-      <c r="AE84" s="22"/>
+      <c r="AE84" s="32"/>
       <c r="AI84" s="13"/>
-      <c r="AJ84" s="21" t="s">
+      <c r="AJ84" s="20" t="s">
         <v>30</v>
       </c>
       <c r="AK84" s="14"/>
-      <c r="AL84" s="18"/>
+      <c r="AL84" s="31"/>
       <c r="AM84" s="18"/>
       <c r="AN84" s="18"/>
       <c r="AO84" s="18"/>
@@ -3348,16 +3457,15 @@
       <c r="AR84" s="18"/>
       <c r="AS84" s="18"/>
       <c r="AT84" s="18"/>
-      <c r="AU84" s="22"/>
-    </row>
-    <row r="85" spans="2:47">
-      <c r="B85" s="26"/>
+      <c r="AU84" s="32"/>
+    </row>
+    <row r="85" spans="3:47">
       <c r="C85" s="13"/>
-      <c r="D85" s="21" t="s">
-        <v>31</v>
+      <c r="D85" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E85" s="14"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
@@ -3366,13 +3474,13 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
-      <c r="O85" s="22"/>
+      <c r="O85" s="32"/>
       <c r="S85" s="13"/>
-      <c r="T85" s="21" t="s">
+      <c r="T85" s="20" t="s">
         <v>31</v>
       </c>
       <c r="U85" s="14"/>
-      <c r="V85" s="18"/>
+      <c r="V85" s="31"/>
       <c r="W85" s="18"/>
       <c r="X85" s="18"/>
       <c r="Y85" s="18"/>
@@ -3381,13 +3489,13 @@
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
       <c r="AD85" s="18"/>
-      <c r="AE85" s="22"/>
+      <c r="AE85" s="32"/>
       <c r="AI85" s="13"/>
-      <c r="AJ85" s="21" t="s">
+      <c r="AJ85" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AK85" s="14"/>
-      <c r="AL85" s="18"/>
+      <c r="AL85" s="31"/>
       <c r="AM85" s="18"/>
       <c r="AN85" s="18"/>
       <c r="AO85" s="18"/>
@@ -3396,14 +3504,13 @@
       <c r="AR85" s="18"/>
       <c r="AS85" s="18"/>
       <c r="AT85" s="18"/>
-      <c r="AU85" s="22"/>
-    </row>
-    <row r="86" spans="2:47">
-      <c r="B86" s="26"/>
+      <c r="AU85" s="32"/>
+    </row>
+    <row r="86" spans="3:47">
       <c r="C86" s="5"/>
-      <c r="D86" s="21"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
@@ -3412,11 +3519,11 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
-      <c r="O86" s="22"/>
+      <c r="O86" s="32"/>
       <c r="S86" s="5"/>
-      <c r="T86" s="21"/>
+      <c r="T86" s="20"/>
       <c r="U86" s="11"/>
-      <c r="V86" s="18"/>
+      <c r="V86" s="31"/>
       <c r="W86" s="18"/>
       <c r="X86" s="18"/>
       <c r="Y86" s="18"/>
@@ -3425,11 +3532,11 @@
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
       <c r="AD86" s="18"/>
-      <c r="AE86" s="22"/>
+      <c r="AE86" s="32"/>
       <c r="AI86" s="5"/>
-      <c r="AJ86" s="21"/>
+      <c r="AJ86" s="20"/>
       <c r="AK86" s="11"/>
-      <c r="AL86" s="18"/>
+      <c r="AL86" s="31"/>
       <c r="AM86" s="18"/>
       <c r="AN86" s="18"/>
       <c r="AO86" s="18"/>
@@ -3438,20 +3545,19 @@
       <c r="AR86" s="18"/>
       <c r="AS86" s="18"/>
       <c r="AT86" s="18"/>
-      <c r="AU86" s="22"/>
-    </row>
-    <row r="87" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B87" s="26"/>
+      <c r="AU86" s="32"/>
+    </row>
+    <row r="87" spans="3:47" ht="17.25" thickBot="1">
       <c r="C87" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>67</v>
+      <c r="D87" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="18"/>
+      <c r="F87" s="31"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
@@ -3460,17 +3566,17 @@
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
-      <c r="O87" s="22"/>
+      <c r="O87" s="32"/>
       <c r="S87" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T87" s="21" t="s">
-        <v>67</v>
+      <c r="T87" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="U87" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V87" s="18"/>
+      <c r="V87" s="31"/>
       <c r="W87" s="18"/>
       <c r="X87" s="18"/>
       <c r="Y87" s="18"/>
@@ -3479,17 +3585,17 @@
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
       <c r="AD87" s="18"/>
-      <c r="AE87" s="22"/>
+      <c r="AE87" s="32"/>
       <c r="AI87" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ87" s="21" t="s">
+      <c r="AJ87" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AK87" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AL87" s="18"/>
+      <c r="AL87" s="31"/>
       <c r="AM87" s="18"/>
       <c r="AN87" s="18"/>
       <c r="AO87" s="18"/>
@@ -3498,16 +3604,15 @@
       <c r="AR87" s="18"/>
       <c r="AS87" s="18"/>
       <c r="AT87" s="18"/>
-      <c r="AU87" s="22"/>
-    </row>
-    <row r="88" spans="2:47">
-      <c r="B88" s="26"/>
+      <c r="AU87" s="32"/>
+    </row>
+    <row r="88" spans="3:47">
       <c r="C88" s="13"/>
-      <c r="D88" t="s">
-        <v>68</v>
+      <c r="D88" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E88" s="14"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="31"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
@@ -3516,13 +3621,13 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
-      <c r="O88" s="22"/>
+      <c r="O88" s="32"/>
       <c r="S88" s="13"/>
-      <c r="T88" t="s">
-        <v>68</v>
+      <c r="T88" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="U88" s="14"/>
-      <c r="V88" s="18"/>
+      <c r="V88" s="31"/>
       <c r="W88" s="18"/>
       <c r="X88" s="18"/>
       <c r="Y88" s="18"/>
@@ -3531,13 +3636,13 @@
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
       <c r="AD88" s="18"/>
-      <c r="AE88" s="22"/>
+      <c r="AE88" s="32"/>
       <c r="AI88" s="13"/>
-      <c r="AJ88" s="21" t="s">
+      <c r="AJ88" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AK88" s="14"/>
-      <c r="AL88" s="18"/>
+      <c r="AL88" s="31"/>
       <c r="AM88" s="18"/>
       <c r="AN88" s="18"/>
       <c r="AO88" s="18"/>
@@ -3546,16 +3651,15 @@
       <c r="AR88" s="18"/>
       <c r="AS88" s="18"/>
       <c r="AT88" s="18"/>
-      <c r="AU88" s="22"/>
-    </row>
-    <row r="89" spans="2:47">
-      <c r="B89" s="26"/>
+      <c r="AU88" s="32"/>
+    </row>
+    <row r="89" spans="3:47">
       <c r="C89" s="13"/>
-      <c r="D89" s="21" t="s">
-        <v>69</v>
+      <c r="D89" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E89" s="14"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="31"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
@@ -3564,13 +3668,13 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
       <c r="N89" s="18"/>
-      <c r="O89" s="22"/>
+      <c r="O89" s="32"/>
       <c r="S89" s="13"/>
-      <c r="T89" s="21" t="s">
-        <v>69</v>
+      <c r="T89" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="U89" s="14"/>
-      <c r="V89" s="18"/>
+      <c r="V89" s="31"/>
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
       <c r="Y89" s="18"/>
@@ -3579,13 +3683,13 @@
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
       <c r="AD89" s="18"/>
-      <c r="AE89" s="22"/>
+      <c r="AE89" s="32"/>
       <c r="AI89" s="13"/>
-      <c r="AJ89" s="21" t="s">
+      <c r="AJ89" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AK89" s="14"/>
-      <c r="AL89" s="18"/>
+      <c r="AL89" s="31"/>
       <c r="AM89" s="18"/>
       <c r="AN89" s="18"/>
       <c r="AO89" s="18"/>
@@ -3594,16 +3698,13 @@
       <c r="AR89" s="18"/>
       <c r="AS89" s="18"/>
       <c r="AT89" s="18"/>
-      <c r="AU89" s="22"/>
-    </row>
-    <row r="90" spans="2:47">
-      <c r="B90" s="26"/>
+      <c r="AU89" s="32"/>
+    </row>
+    <row r="90" spans="3:47">
       <c r="C90" s="5"/>
-      <c r="D90" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="D90" s="20"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="31"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
@@ -3612,13 +3713,11 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
-      <c r="O90" s="22"/>
+      <c r="O90" s="32"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="T90" s="20"/>
       <c r="U90" s="11"/>
-      <c r="V90" s="18"/>
+      <c r="V90" s="31"/>
       <c r="W90" s="18"/>
       <c r="X90" s="18"/>
       <c r="Y90" s="18"/>
@@ -3627,11 +3726,11 @@
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
       <c r="AD90" s="18"/>
-      <c r="AE90" s="22"/>
+      <c r="AE90" s="32"/>
       <c r="AI90" s="5"/>
-      <c r="AJ90" s="21"/>
+      <c r="AJ90" s="20"/>
       <c r="AK90" s="11"/>
-      <c r="AL90" s="18"/>
+      <c r="AL90" s="31"/>
       <c r="AM90" s="18"/>
       <c r="AN90" s="18"/>
       <c r="AO90" s="18"/>
@@ -3640,16 +3739,15 @@
       <c r="AR90" s="18"/>
       <c r="AS90" s="18"/>
       <c r="AT90" s="18"/>
-      <c r="AU90" s="22"/>
-    </row>
-    <row r="91" spans="2:47">
-      <c r="B91" s="26"/>
+      <c r="AU90" s="32"/>
+    </row>
+    <row r="91" spans="3:47">
       <c r="C91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="21"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="31"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="18"/>
@@ -3658,13 +3756,13 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
-      <c r="O91" s="22"/>
+      <c r="O91" s="32"/>
       <c r="S91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T91" s="21"/>
+      <c r="T91" s="20"/>
       <c r="U91" s="11"/>
-      <c r="V91" s="18"/>
+      <c r="V91" s="31"/>
       <c r="W91" s="18"/>
       <c r="X91" s="18"/>
       <c r="Y91" s="18"/>
@@ -3673,13 +3771,13 @@
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
-      <c r="AE91" s="22"/>
+      <c r="AE91" s="32"/>
       <c r="AI91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ91" s="21"/>
+      <c r="AJ91" s="20"/>
       <c r="AK91" s="11"/>
-      <c r="AL91" s="18"/>
+      <c r="AL91" s="31"/>
       <c r="AM91" s="18"/>
       <c r="AN91" s="18"/>
       <c r="AO91" s="18"/>
@@ -3688,191 +3786,186 @@
       <c r="AR91" s="18"/>
       <c r="AS91" s="18"/>
       <c r="AT91" s="18"/>
-      <c r="AU91" s="22"/>
-    </row>
-    <row r="92" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B92" s="26"/>
+      <c r="AU91" s="32"/>
+    </row>
+    <row r="92" spans="3:47" ht="17.25" thickBot="1">
       <c r="C92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="23"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="25"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="35"/>
       <c r="S92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T92" s="23"/>
+      <c r="T92" s="21"/>
       <c r="U92" s="12"/>
-      <c r="V92" s="24"/>
-      <c r="W92" s="24"/>
-      <c r="X92" s="24"/>
-      <c r="Y92" s="24"/>
-      <c r="Z92" s="24"/>
-      <c r="AA92" s="24"/>
-      <c r="AB92" s="24"/>
-      <c r="AC92" s="24"/>
-      <c r="AD92" s="24"/>
-      <c r="AE92" s="25"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="34"/>
+      <c r="AC92" s="34"/>
+      <c r="AD92" s="34"/>
+      <c r="AE92" s="35"/>
       <c r="AI92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ92" s="23"/>
+      <c r="AJ92" s="21"/>
       <c r="AK92" s="12"/>
-      <c r="AL92" s="24"/>
-      <c r="AM92" s="24"/>
-      <c r="AN92" s="24"/>
-      <c r="AO92" s="24"/>
-      <c r="AP92" s="24"/>
-      <c r="AQ92" s="24"/>
-      <c r="AR92" s="24"/>
-      <c r="AS92" s="24"/>
-      <c r="AT92" s="24"/>
-      <c r="AU92" s="25"/>
-    </row>
-    <row r="93" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B93" s="26"/>
-    </row>
-    <row r="94" spans="2:47">
-      <c r="B94" s="26"/>
+      <c r="AL92" s="33"/>
+      <c r="AM92" s="34"/>
+      <c r="AN92" s="34"/>
+      <c r="AO92" s="34"/>
+      <c r="AP92" s="34"/>
+      <c r="AQ92" s="34"/>
+      <c r="AR92" s="34"/>
+      <c r="AS92" s="34"/>
+      <c r="AT92" s="34"/>
+      <c r="AU92" s="35"/>
+    </row>
+    <row r="93" spans="3:47" ht="17.25" thickBot="1"/>
+    <row r="94" spans="3:47" ht="33">
       <c r="C94" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" s="19" t="s">
+      <c r="F94" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M94" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N94" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O94" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I94" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J94" s="19" t="s">
+      <c r="T94" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L94" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N94" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O94" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="U94" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V94" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W94" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X94" s="19" t="s">
+      <c r="V94" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W94" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X94" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y94" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z94" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA94" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB94" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC94" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD94" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE94" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y94" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z94" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA94" s="19" t="s">
+      <c r="AJ94" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB94" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC94" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD94" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE94" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ94" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AK94" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AL94" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM94" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN94" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO94" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP94" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ94" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR94" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS94" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT94" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU94" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="2:47">
-      <c r="B95" s="26"/>
+      <c r="AL94" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM94" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN94" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO94" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP94" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ94" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR94" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS94" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT94" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU94" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="3:47">
       <c r="C95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="21" t="s">
-        <v>29</v>
+      <c r="D95" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="18"/>
+      <c r="F95" s="31"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
@@ -3881,17 +3974,17 @@
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
-      <c r="O95" s="22"/>
+      <c r="O95" s="32"/>
       <c r="S95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T95" s="21" t="s">
+      <c r="T95" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U95" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V95" s="18"/>
+      <c r="V95" s="31"/>
       <c r="W95" s="18"/>
       <c r="X95" s="18"/>
       <c r="Y95" s="18"/>
@@ -3900,17 +3993,17 @@
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
       <c r="AD95" s="18"/>
-      <c r="AE95" s="22"/>
+      <c r="AE95" s="32"/>
       <c r="AI95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ95" s="21" t="s">
+      <c r="AJ95" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AK95" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AL95" s="18"/>
+      <c r="AL95" s="31"/>
       <c r="AM95" s="18"/>
       <c r="AN95" s="18"/>
       <c r="AO95" s="18"/>
@@ -3919,16 +4012,15 @@
       <c r="AR95" s="18"/>
       <c r="AS95" s="18"/>
       <c r="AT95" s="18"/>
-      <c r="AU95" s="22"/>
-    </row>
-    <row r="96" spans="2:47">
-      <c r="B96" s="26"/>
+      <c r="AU95" s="32"/>
+    </row>
+    <row r="96" spans="3:47">
       <c r="C96" s="13"/>
-      <c r="D96" s="21" t="s">
-        <v>30</v>
+      <c r="D96" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E96" s="14"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="31"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
@@ -3937,13 +4029,13 @@
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
-      <c r="O96" s="22"/>
+      <c r="O96" s="32"/>
       <c r="S96" s="13"/>
-      <c r="T96" s="21" t="s">
+      <c r="T96" s="20" t="s">
         <v>30</v>
       </c>
       <c r="U96" s="14"/>
-      <c r="V96" s="18"/>
+      <c r="V96" s="31"/>
       <c r="W96" s="18"/>
       <c r="X96" s="18"/>
       <c r="Y96" s="18"/>
@@ -3952,13 +4044,13 @@
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
       <c r="AD96" s="18"/>
-      <c r="AE96" s="22"/>
+      <c r="AE96" s="32"/>
       <c r="AI96" s="13"/>
-      <c r="AJ96" s="21" t="s">
+      <c r="AJ96" s="20" t="s">
         <v>30</v>
       </c>
       <c r="AK96" s="14"/>
-      <c r="AL96" s="18"/>
+      <c r="AL96" s="31"/>
       <c r="AM96" s="18"/>
       <c r="AN96" s="18"/>
       <c r="AO96" s="18"/>
@@ -3967,16 +4059,15 @@
       <c r="AR96" s="18"/>
       <c r="AS96" s="18"/>
       <c r="AT96" s="18"/>
-      <c r="AU96" s="22"/>
+      <c r="AU96" s="32"/>
     </row>
     <row r="97" spans="2:47">
-      <c r="B97" s="26"/>
       <c r="C97" s="13"/>
-      <c r="D97" s="21" t="s">
-        <v>31</v>
+      <c r="D97" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E97" s="14"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="31"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
@@ -3985,13 +4076,13 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
-      <c r="O97" s="22"/>
+      <c r="O97" s="32"/>
       <c r="S97" s="13"/>
-      <c r="T97" s="21" t="s">
+      <c r="T97" s="20" t="s">
         <v>31</v>
       </c>
       <c r="U97" s="14"/>
-      <c r="V97" s="18"/>
+      <c r="V97" s="31"/>
       <c r="W97" s="18"/>
       <c r="X97" s="18"/>
       <c r="Y97" s="18"/>
@@ -4000,13 +4091,13 @@
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
       <c r="AD97" s="18"/>
-      <c r="AE97" s="22"/>
+      <c r="AE97" s="32"/>
       <c r="AI97" s="13"/>
-      <c r="AJ97" s="21" t="s">
+      <c r="AJ97" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AK97" s="14"/>
-      <c r="AL97" s="18"/>
+      <c r="AL97" s="31"/>
       <c r="AM97" s="18"/>
       <c r="AN97" s="18"/>
       <c r="AO97" s="18"/>
@@ -4015,14 +4106,13 @@
       <c r="AR97" s="18"/>
       <c r="AS97" s="18"/>
       <c r="AT97" s="18"/>
-      <c r="AU97" s="22"/>
+      <c r="AU97" s="32"/>
     </row>
     <row r="98" spans="2:47">
-      <c r="B98" s="26"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="21"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="18"/>
+      <c r="F98" s="31"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="18"/>
@@ -4031,11 +4121,11 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
-      <c r="O98" s="22"/>
+      <c r="O98" s="32"/>
       <c r="S98" s="5"/>
-      <c r="T98" s="21"/>
+      <c r="T98" s="20"/>
       <c r="U98" s="11"/>
-      <c r="V98" s="18"/>
+      <c r="V98" s="31"/>
       <c r="W98" s="18"/>
       <c r="X98" s="18"/>
       <c r="Y98" s="18"/>
@@ -4044,11 +4134,11 @@
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
       <c r="AD98" s="18"/>
-      <c r="AE98" s="22"/>
+      <c r="AE98" s="32"/>
       <c r="AI98" s="5"/>
-      <c r="AJ98" s="21"/>
+      <c r="AJ98" s="20"/>
       <c r="AK98" s="11"/>
-      <c r="AL98" s="18"/>
+      <c r="AL98" s="31"/>
       <c r="AM98" s="18"/>
       <c r="AN98" s="18"/>
       <c r="AO98" s="18"/>
@@ -4057,20 +4147,19 @@
       <c r="AR98" s="18"/>
       <c r="AS98" s="18"/>
       <c r="AT98" s="18"/>
-      <c r="AU98" s="22"/>
+      <c r="AU98" s="32"/>
     </row>
     <row r="99" spans="2:47" ht="66.75" thickBot="1">
-      <c r="B99" s="26"/>
       <c r="C99" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>67</v>
+      <c r="D99" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F99" s="18"/>
+      <c r="F99" s="31"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
@@ -4079,17 +4168,17 @@
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
-      <c r="O99" s="22"/>
+      <c r="O99" s="32"/>
       <c r="S99" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T99" s="21" t="s">
-        <v>67</v>
+      <c r="T99" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="U99" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="V99" s="18"/>
+      <c r="V99" s="31"/>
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
       <c r="Y99" s="18"/>
@@ -4098,17 +4187,17 @@
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
       <c r="AD99" s="18"/>
-      <c r="AE99" s="22"/>
+      <c r="AE99" s="32"/>
       <c r="AI99" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ99" s="21" t="s">
+      <c r="AJ99" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AK99" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AL99" s="18"/>
+      <c r="AL99" s="31"/>
       <c r="AM99" s="18"/>
       <c r="AN99" s="18"/>
       <c r="AO99" s="18"/>
@@ -4117,16 +4206,15 @@
       <c r="AR99" s="18"/>
       <c r="AS99" s="18"/>
       <c r="AT99" s="18"/>
-      <c r="AU99" s="22"/>
+      <c r="AU99" s="32"/>
     </row>
     <row r="100" spans="2:47">
-      <c r="B100" s="26"/>
       <c r="C100" s="13"/>
-      <c r="D100" t="s">
-        <v>68</v>
+      <c r="D100" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E100" s="14"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="31"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -4135,13 +4223,13 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
-      <c r="O100" s="22"/>
+      <c r="O100" s="32"/>
       <c r="S100" s="13"/>
-      <c r="T100" t="s">
-        <v>68</v>
+      <c r="T100" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="U100" s="14"/>
-      <c r="V100" s="18"/>
+      <c r="V100" s="31"/>
       <c r="W100" s="18"/>
       <c r="X100" s="18"/>
       <c r="Y100" s="18"/>
@@ -4150,13 +4238,13 @@
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
       <c r="AD100" s="18"/>
-      <c r="AE100" s="22"/>
+      <c r="AE100" s="32"/>
       <c r="AI100" s="13"/>
-      <c r="AJ100" s="21" t="s">
+      <c r="AJ100" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AK100" s="14"/>
-      <c r="AL100" s="18"/>
+      <c r="AL100" s="31"/>
       <c r="AM100" s="18"/>
       <c r="AN100" s="18"/>
       <c r="AO100" s="18"/>
@@ -4165,16 +4253,15 @@
       <c r="AR100" s="18"/>
       <c r="AS100" s="18"/>
       <c r="AT100" s="18"/>
-      <c r="AU100" s="22"/>
+      <c r="AU100" s="32"/>
     </row>
     <row r="101" spans="2:47">
-      <c r="B101" s="26"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="21" t="s">
-        <v>69</v>
+      <c r="D101" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E101" s="14"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -4183,13 +4270,13 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
-      <c r="O101" s="22"/>
+      <c r="O101" s="32"/>
       <c r="S101" s="13"/>
-      <c r="T101" s="21" t="s">
-        <v>69</v>
+      <c r="T101" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="U101" s="14"/>
-      <c r="V101" s="18"/>
+      <c r="V101" s="31"/>
       <c r="W101" s="18"/>
       <c r="X101" s="18"/>
       <c r="Y101" s="18"/>
@@ -4198,13 +4285,13 @@
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
       <c r="AD101" s="18"/>
-      <c r="AE101" s="22"/>
+      <c r="AE101" s="32"/>
       <c r="AI101" s="13"/>
-      <c r="AJ101" s="21" t="s">
+      <c r="AJ101" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AK101" s="14"/>
-      <c r="AL101" s="18"/>
+      <c r="AL101" s="31"/>
       <c r="AM101" s="18"/>
       <c r="AN101" s="18"/>
       <c r="AO101" s="18"/>
@@ -4213,16 +4300,13 @@
       <c r="AR101" s="18"/>
       <c r="AS101" s="18"/>
       <c r="AT101" s="18"/>
-      <c r="AU101" s="22"/>
+      <c r="AU101" s="32"/>
     </row>
     <row r="102" spans="2:47">
-      <c r="B102" s="26"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="D102" s="20"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
@@ -4231,13 +4315,11 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
-      <c r="O102" s="22"/>
+      <c r="O102" s="32"/>
       <c r="S102" s="5"/>
-      <c r="T102" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="T102" s="20"/>
       <c r="U102" s="11"/>
-      <c r="V102" s="18"/>
+      <c r="V102" s="31"/>
       <c r="W102" s="18"/>
       <c r="X102" s="18"/>
       <c r="Y102" s="18"/>
@@ -4246,11 +4328,11 @@
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
       <c r="AD102" s="18"/>
-      <c r="AE102" s="22"/>
+      <c r="AE102" s="32"/>
       <c r="AI102" s="5"/>
-      <c r="AJ102" s="21"/>
+      <c r="AJ102" s="20"/>
       <c r="AK102" s="11"/>
-      <c r="AL102" s="18"/>
+      <c r="AL102" s="31"/>
       <c r="AM102" s="18"/>
       <c r="AN102" s="18"/>
       <c r="AO102" s="18"/>
@@ -4259,16 +4341,15 @@
       <c r="AR102" s="18"/>
       <c r="AS102" s="18"/>
       <c r="AT102" s="18"/>
-      <c r="AU102" s="22"/>
+      <c r="AU102" s="32"/>
     </row>
     <row r="103" spans="2:47">
-      <c r="B103" s="26"/>
       <c r="C103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="21"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="31"/>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
       <c r="I103" s="18"/>
@@ -4277,13 +4358,13 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
-      <c r="O103" s="22"/>
+      <c r="O103" s="32"/>
       <c r="S103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T103" s="21"/>
+      <c r="T103" s="20"/>
       <c r="U103" s="11"/>
-      <c r="V103" s="18"/>
+      <c r="V103" s="31"/>
       <c r="W103" s="18"/>
       <c r="X103" s="18"/>
       <c r="Y103" s="18"/>
@@ -4292,13 +4373,13 @@
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
       <c r="AD103" s="18"/>
-      <c r="AE103" s="22"/>
+      <c r="AE103" s="32"/>
       <c r="AI103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ103" s="21"/>
+      <c r="AJ103" s="20"/>
       <c r="AK103" s="11"/>
-      <c r="AL103" s="18"/>
+      <c r="AL103" s="31"/>
       <c r="AM103" s="18"/>
       <c r="AN103" s="18"/>
       <c r="AO103" s="18"/>
@@ -4307,191 +4388,189 @@
       <c r="AR103" s="18"/>
       <c r="AS103" s="18"/>
       <c r="AT103" s="18"/>
-      <c r="AU103" s="22"/>
+      <c r="AU103" s="32"/>
     </row>
     <row r="104" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B104" s="26"/>
       <c r="C104" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D104" s="23"/>
+      <c r="D104" s="21"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="25"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="35"/>
       <c r="S104" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T104" s="23"/>
+      <c r="T104" s="21"/>
       <c r="U104" s="12"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24"/>
-      <c r="Y104" s="24"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="24"/>
-      <c r="AB104" s="24"/>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="25"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="34"/>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+      <c r="Z104" s="34"/>
+      <c r="AA104" s="34"/>
+      <c r="AB104" s="34"/>
+      <c r="AC104" s="34"/>
+      <c r="AD104" s="34"/>
+      <c r="AE104" s="35"/>
       <c r="AI104" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ104" s="23"/>
+      <c r="AJ104" s="21"/>
       <c r="AK104" s="12"/>
-      <c r="AL104" s="24"/>
-      <c r="AM104" s="24"/>
-      <c r="AN104" s="24"/>
-      <c r="AO104" s="24"/>
-      <c r="AP104" s="24"/>
-      <c r="AQ104" s="24"/>
-      <c r="AR104" s="24"/>
-      <c r="AS104" s="24"/>
-      <c r="AT104" s="24"/>
-      <c r="AU104" s="25"/>
-    </row>
-    <row r="105" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B105" s="26"/>
-    </row>
-    <row r="106" spans="2:47">
-      <c r="B106" s="26"/>
+      <c r="AL104" s="33"/>
+      <c r="AM104" s="34"/>
+      <c r="AN104" s="34"/>
+      <c r="AO104" s="34"/>
+      <c r="AP104" s="34"/>
+      <c r="AQ104" s="34"/>
+      <c r="AR104" s="34"/>
+      <c r="AS104" s="34"/>
+      <c r="AT104" s="34"/>
+      <c r="AU104" s="35"/>
+    </row>
+    <row r="105" spans="2:47" ht="17.25" thickBot="1"/>
+    <row r="106" spans="2:47" ht="33">
+      <c r="B106" t="s">
+        <v>62</v>
+      </c>
       <c r="C106" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L106" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M106" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N106" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O106" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I106" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J106" s="19" t="s">
+      <c r="T106" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L106" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M106" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N106" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O106" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T106" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="U106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V106" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W106" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X106" s="19" t="s">
+      <c r="V106" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W106" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X106" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y106" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z106" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA106" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB106" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC106" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD106" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE106" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y106" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z106" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA106" s="19" t="s">
+      <c r="AJ106" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB106" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC106" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD106" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE106" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ106" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AK106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AL106" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM106" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN106" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO106" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP106" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ106" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR106" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS106" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT106" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU106" s="20" t="s">
-        <v>61</v>
+      <c r="AL106" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM106" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN106" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO106" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP106" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ106" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR106" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS106" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT106" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU106" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="2:47">
-      <c r="B107" s="26"/>
       <c r="C107" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="14" t="s">
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F107" s="18"/>
+      <c r="F107" s="31"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
@@ -4500,17 +4579,17 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
-      <c r="O107" s="22"/>
+      <c r="O107" s="32"/>
       <c r="S107" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T107" s="21" t="s">
+      <c r="T107" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U107" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V107" s="18"/>
+      <c r="V107" s="31"/>
       <c r="W107" s="18"/>
       <c r="X107" s="18"/>
       <c r="Y107" s="18"/>
@@ -4519,17 +4598,17 @@
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
       <c r="AD107" s="18"/>
-      <c r="AE107" s="22"/>
+      <c r="AE107" s="32"/>
       <c r="AI107" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ107" s="21" t="s">
+      <c r="AJ107" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AK107" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AL107" s="18"/>
+      <c r="AL107" s="31"/>
       <c r="AM107" s="18"/>
       <c r="AN107" s="18"/>
       <c r="AO107" s="18"/>
@@ -4538,16 +4617,15 @@
       <c r="AR107" s="18"/>
       <c r="AS107" s="18"/>
       <c r="AT107" s="18"/>
-      <c r="AU107" s="22"/>
+      <c r="AU107" s="32"/>
     </row>
     <row r="108" spans="2:47">
-      <c r="B108" s="26"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="18"/>
+      <c r="D108" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="31"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
@@ -4556,13 +4634,13 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
-      <c r="O108" s="22"/>
+      <c r="O108" s="32"/>
       <c r="S108" s="13"/>
-      <c r="T108" s="21" t="s">
+      <c r="T108" s="20" t="s">
         <v>30</v>
       </c>
       <c r="U108" s="14"/>
-      <c r="V108" s="18"/>
+      <c r="V108" s="31"/>
       <c r="W108" s="18"/>
       <c r="X108" s="18"/>
       <c r="Y108" s="18"/>
@@ -4571,13 +4649,13 @@
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
       <c r="AD108" s="18"/>
-      <c r="AE108" s="22"/>
+      <c r="AE108" s="32"/>
       <c r="AI108" s="13"/>
-      <c r="AJ108" s="21" t="s">
+      <c r="AJ108" s="20" t="s">
         <v>30</v>
       </c>
       <c r="AK108" s="14"/>
-      <c r="AL108" s="18"/>
+      <c r="AL108" s="31"/>
       <c r="AM108" s="18"/>
       <c r="AN108" s="18"/>
       <c r="AO108" s="18"/>
@@ -4586,16 +4664,15 @@
       <c r="AR108" s="18"/>
       <c r="AS108" s="18"/>
       <c r="AT108" s="18"/>
-      <c r="AU108" s="22"/>
+      <c r="AU108" s="32"/>
     </row>
     <row r="109" spans="2:47">
-      <c r="B109" s="26"/>
       <c r="C109" s="13"/>
-      <c r="D109" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="18"/>
+      <c r="D109" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="31"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
@@ -4604,13 +4681,13 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
-      <c r="O109" s="22"/>
+      <c r="O109" s="32"/>
       <c r="S109" s="13"/>
-      <c r="T109" s="21" t="s">
+      <c r="T109" s="20" t="s">
         <v>31</v>
       </c>
       <c r="U109" s="14"/>
-      <c r="V109" s="18"/>
+      <c r="V109" s="31"/>
       <c r="W109" s="18"/>
       <c r="X109" s="18"/>
       <c r="Y109" s="18"/>
@@ -4619,13 +4696,13 @@
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
       <c r="AD109" s="18"/>
-      <c r="AE109" s="22"/>
+      <c r="AE109" s="32"/>
       <c r="AI109" s="13"/>
-      <c r="AJ109" s="21" t="s">
+      <c r="AJ109" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AK109" s="14"/>
-      <c r="AL109" s="18"/>
+      <c r="AL109" s="31"/>
       <c r="AM109" s="18"/>
       <c r="AN109" s="18"/>
       <c r="AO109" s="18"/>
@@ -4634,15 +4711,20 @@
       <c r="AR109" s="18"/>
       <c r="AS109" s="18"/>
       <c r="AT109" s="18"/>
-      <c r="AU109" s="22"/>
+      <c r="AU109" s="32"/>
     </row>
     <row r="110" spans="2:47">
-      <c r="B110" s="26"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
+      <c r="D110" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="25"/>
+      <c r="F110" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
       <c r="J110" s="18"/>
@@ -4650,11 +4732,11 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
-      <c r="O110" s="22"/>
+      <c r="O110" s="32"/>
       <c r="S110" s="5"/>
-      <c r="T110" s="21"/>
+      <c r="T110" s="20"/>
       <c r="U110" s="1"/>
-      <c r="V110" s="18"/>
+      <c r="V110" s="31"/>
       <c r="W110" s="18"/>
       <c r="X110" s="18"/>
       <c r="Y110" s="18"/>
@@ -4663,11 +4745,11 @@
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
       <c r="AD110" s="18"/>
-      <c r="AE110" s="22"/>
+      <c r="AE110" s="32"/>
       <c r="AI110" s="5"/>
-      <c r="AJ110" s="21"/>
+      <c r="AJ110" s="20"/>
       <c r="AK110" s="1"/>
-      <c r="AL110" s="18"/>
+      <c r="AL110" s="31"/>
       <c r="AM110" s="18"/>
       <c r="AN110" s="18"/>
       <c r="AO110" s="18"/>
@@ -4676,20 +4758,19 @@
       <c r="AR110" s="18"/>
       <c r="AS110" s="18"/>
       <c r="AT110" s="18"/>
-      <c r="AU110" s="22"/>
+      <c r="AU110" s="32"/>
     </row>
     <row r="111" spans="2:47" ht="50.25" thickBot="1">
-      <c r="B111" s="26"/>
       <c r="C111" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D111" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" s="17" t="s">
+      <c r="D111" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F111" s="18"/>
+      <c r="F111" s="31"/>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
       <c r="I111" s="18"/>
@@ -4698,17 +4779,17 @@
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
-      <c r="O111" s="22"/>
+      <c r="O111" s="32"/>
       <c r="S111" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T111" s="21" t="s">
-        <v>67</v>
+      <c r="T111" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="U111" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="V111" s="18"/>
+      <c r="V111" s="31"/>
       <c r="W111" s="18"/>
       <c r="X111" s="18"/>
       <c r="Y111" s="18"/>
@@ -4717,17 +4798,17 @@
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
       <c r="AD111" s="18"/>
-      <c r="AE111" s="22"/>
+      <c r="AE111" s="32"/>
       <c r="AI111" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ111" s="21" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AK111" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AL111" s="18"/>
+      <c r="AL111" s="31"/>
       <c r="AM111" s="18"/>
       <c r="AN111" s="18"/>
       <c r="AO111" s="18"/>
@@ -4736,16 +4817,15 @@
       <c r="AR111" s="18"/>
       <c r="AS111" s="18"/>
       <c r="AT111" s="18"/>
-      <c r="AU111" s="22"/>
+      <c r="AU111" s="32"/>
     </row>
     <row r="112" spans="2:47">
-      <c r="B112" s="26"/>
       <c r="C112" s="13"/>
-      <c r="D112" t="s">
-        <v>68</v>
-      </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="18"/>
+      <c r="D112" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="31"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
       <c r="I112" s="18"/>
@@ -4754,13 +4834,13 @@
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
-      <c r="O112" s="22"/>
+      <c r="O112" s="32"/>
       <c r="S112" s="13"/>
-      <c r="T112" t="s">
-        <v>68</v>
+      <c r="T112" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="U112" s="14"/>
-      <c r="V112" s="18"/>
+      <c r="V112" s="31"/>
       <c r="W112" s="18"/>
       <c r="X112" s="18"/>
       <c r="Y112" s="18"/>
@@ -4769,13 +4849,13 @@
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
       <c r="AD112" s="18"/>
-      <c r="AE112" s="22"/>
+      <c r="AE112" s="32"/>
       <c r="AI112" s="13"/>
-      <c r="AJ112" s="21" t="s">
+      <c r="AJ112" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AK112" s="14"/>
-      <c r="AL112" s="18"/>
+      <c r="AL112" s="31"/>
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
       <c r="AO112" s="18"/>
@@ -4784,16 +4864,15 @@
       <c r="AR112" s="18"/>
       <c r="AS112" s="18"/>
       <c r="AT112" s="18"/>
-      <c r="AU112" s="22"/>
-    </row>
-    <row r="113" spans="2:47">
-      <c r="B113" s="26"/>
+      <c r="AU112" s="32"/>
+    </row>
+    <row r="113" spans="3:47">
       <c r="C113" s="13"/>
-      <c r="D113" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="18"/>
+      <c r="D113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="31"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
       <c r="I113" s="18"/>
@@ -4802,13 +4881,13 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
-      <c r="O113" s="22"/>
+      <c r="O113" s="32"/>
       <c r="S113" s="13"/>
-      <c r="T113" s="21" t="s">
-        <v>69</v>
+      <c r="T113" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="U113" s="14"/>
-      <c r="V113" s="18"/>
+      <c r="V113" s="31"/>
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
       <c r="Y113" s="18"/>
@@ -4817,13 +4896,13 @@
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
       <c r="AD113" s="18"/>
-      <c r="AE113" s="22"/>
+      <c r="AE113" s="32"/>
       <c r="AI113" s="13"/>
-      <c r="AJ113" s="21" t="s">
+      <c r="AJ113" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AK113" s="14"/>
-      <c r="AL113" s="18"/>
+      <c r="AL113" s="31"/>
       <c r="AM113" s="18"/>
       <c r="AN113" s="18"/>
       <c r="AO113" s="18"/>
@@ -4832,16 +4911,15 @@
       <c r="AR113" s="18"/>
       <c r="AS113" s="18"/>
       <c r="AT113" s="18"/>
-      <c r="AU113" s="22"/>
-    </row>
-    <row r="114" spans="2:47">
-      <c r="B114" s="26"/>
+      <c r="AU113" s="32"/>
+    </row>
+    <row r="114" spans="3:47">
       <c r="C114" s="5"/>
-      <c r="D114" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="18"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F114" s="31"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
       <c r="I114" s="18"/>
@@ -4850,13 +4928,11 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
-      <c r="O114" s="22"/>
+      <c r="O114" s="32"/>
       <c r="S114" s="5"/>
-      <c r="T114" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="T114" s="20"/>
       <c r="U114" s="1"/>
-      <c r="V114" s="18"/>
+      <c r="V114" s="31"/>
       <c r="W114" s="18"/>
       <c r="X114" s="18"/>
       <c r="Y114" s="18"/>
@@ -4865,11 +4941,11 @@
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
       <c r="AD114" s="18"/>
-      <c r="AE114" s="22"/>
+      <c r="AE114" s="32"/>
       <c r="AI114" s="5"/>
-      <c r="AJ114" s="21"/>
+      <c r="AJ114" s="20"/>
       <c r="AK114" s="1"/>
-      <c r="AL114" s="18"/>
+      <c r="AL114" s="31"/>
       <c r="AM114" s="18"/>
       <c r="AN114" s="18"/>
       <c r="AO114" s="18"/>
@@ -4878,16 +4954,16 @@
       <c r="AR114" s="18"/>
       <c r="AS114" s="18"/>
       <c r="AT114" s="18"/>
-      <c r="AU114" s="22"/>
-    </row>
-    <row r="115" spans="2:47">
-      <c r="B115" s="26"/>
+      <c r="AU114" s="32"/>
+    </row>
+    <row r="115" spans="3:47">
       <c r="C115" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="18"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
@@ -4896,13 +4972,13 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
-      <c r="O115" s="22"/>
+      <c r="O115" s="32"/>
       <c r="S115" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T115" s="21"/>
+      <c r="T115" s="20"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="18"/>
+      <c r="V115" s="31"/>
       <c r="W115" s="18"/>
       <c r="X115" s="18"/>
       <c r="Y115" s="18"/>
@@ -4911,13 +4987,13 @@
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
       <c r="AD115" s="18"/>
-      <c r="AE115" s="22"/>
+      <c r="AE115" s="32"/>
       <c r="AI115" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ115" s="21"/>
+      <c r="AJ115" s="20"/>
       <c r="AK115" s="1"/>
-      <c r="AL115" s="18"/>
+      <c r="AL115" s="31"/>
       <c r="AM115" s="18"/>
       <c r="AN115" s="18"/>
       <c r="AO115" s="18"/>
@@ -4926,993 +5002,461 @@
       <c r="AR115" s="18"/>
       <c r="AS115" s="18"/>
       <c r="AT115" s="18"/>
-      <c r="AU115" s="22"/>
-    </row>
-    <row r="116" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B116" s="26"/>
+      <c r="AU115" s="32"/>
+    </row>
+    <row r="116" spans="3:47" ht="17.25" thickBot="1">
       <c r="C116" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="25"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="35"/>
       <c r="S116" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T116" s="23"/>
+      <c r="T116" s="21"/>
       <c r="U116" s="8"/>
-      <c r="V116" s="24"/>
-      <c r="W116" s="24"/>
-      <c r="X116" s="24"/>
-      <c r="Y116" s="24"/>
-      <c r="Z116" s="24"/>
-      <c r="AA116" s="24"/>
-      <c r="AB116" s="24"/>
-      <c r="AC116" s="24"/>
-      <c r="AD116" s="24"/>
-      <c r="AE116" s="25"/>
+      <c r="V116" s="33"/>
+      <c r="W116" s="34"/>
+      <c r="X116" s="34"/>
+      <c r="Y116" s="34"/>
+      <c r="Z116" s="34"/>
+      <c r="AA116" s="34"/>
+      <c r="AB116" s="34"/>
+      <c r="AC116" s="34"/>
+      <c r="AD116" s="34"/>
+      <c r="AE116" s="35"/>
       <c r="AI116" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ116" s="23"/>
+      <c r="AJ116" s="21"/>
       <c r="AK116" s="8"/>
-      <c r="AL116" s="24"/>
-      <c r="AM116" s="24"/>
-      <c r="AN116" s="24"/>
-      <c r="AO116" s="24"/>
-      <c r="AP116" s="24"/>
-      <c r="AQ116" s="24"/>
-      <c r="AR116" s="24"/>
-      <c r="AS116" s="24"/>
-      <c r="AT116" s="24"/>
-      <c r="AU116" s="25"/>
-    </row>
-    <row r="117" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B117" s="26"/>
-    </row>
-    <row r="118" spans="2:47">
-      <c r="B118" s="26"/>
-      <c r="C118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="AL116" s="33"/>
+      <c r="AM116" s="34"/>
+      <c r="AN116" s="34"/>
+      <c r="AO116" s="34"/>
+      <c r="AP116" s="34"/>
+      <c r="AQ116" s="34"/>
+      <c r="AR116" s="34"/>
+      <c r="AS116" s="34"/>
+      <c r="AT116" s="34"/>
+      <c r="AU116" s="35"/>
+    </row>
+    <row r="125" spans="3:47" ht="17.25" thickBot="1"/>
+    <row r="126" spans="3:47">
+      <c r="C126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="3:47">
+      <c r="C127" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P127" s="15"/>
+    </row>
+    <row r="128" spans="3:47">
+      <c r="C128" s="13"/>
+      <c r="D128" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="15"/>
+    </row>
+    <row r="129" spans="3:16">
+      <c r="C129" s="13"/>
+      <c r="D129" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="15"/>
+    </row>
+    <row r="130" spans="3:16">
+      <c r="C130" s="5"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="6"/>
+    </row>
+    <row r="131" spans="3:16" ht="33.75" thickBot="1">
+      <c r="C131" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L131" s="14"/>
+      <c r="M131" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N131" s="14"/>
+      <c r="O131" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P131" s="15"/>
+    </row>
+    <row r="132" spans="3:16">
+      <c r="C132" s="13"/>
+      <c r="D132" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="15"/>
+    </row>
+    <row r="133" spans="3:16">
+      <c r="C133" s="13"/>
+      <c r="D133" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="15"/>
+    </row>
+    <row r="134" spans="3:16">
+      <c r="C134" s="5"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="6"/>
+    </row>
+    <row r="135" spans="3:16">
+      <c r="C135" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="6"/>
+    </row>
+    <row r="136" spans="3:16" ht="17.25" thickBot="1">
+      <c r="C136" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="9"/>
+    </row>
+    <row r="138" spans="3:16" ht="17.25" thickBot="1"/>
+    <row r="139" spans="3:16" ht="33">
+      <c r="C139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J139" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F118" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I118" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J118" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K118" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L118" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M118" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N118" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O118" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U118" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V118" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W118" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X118" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y118" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z118" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA118" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB118" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC118" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD118" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE118" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ118" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK118" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL118" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM118" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN118" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO118" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP118" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ118" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR118" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS118" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT118" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU118" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="2:47">
-      <c r="B119" s="26"/>
-      <c r="C119" s="13" t="s">
+      <c r="K139" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L139" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M139" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N139" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O139" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="3:16">
+      <c r="C140" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D140" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="22"/>
-      <c r="S119" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T119" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U119" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="18"/>
-      <c r="AA119" s="18"/>
-      <c r="AB119" s="18"/>
-      <c r="AC119" s="18"/>
-      <c r="AD119" s="18"/>
-      <c r="AE119" s="22"/>
-      <c r="AI119" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ119" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK119" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL119" s="18"/>
-      <c r="AM119" s="18"/>
-      <c r="AN119" s="18"/>
-      <c r="AO119" s="18"/>
-      <c r="AP119" s="18"/>
-      <c r="AQ119" s="18"/>
-      <c r="AR119" s="18"/>
-      <c r="AS119" s="18"/>
-      <c r="AT119" s="18"/>
-      <c r="AU119" s="22"/>
-    </row>
-    <row r="120" spans="2:47">
-      <c r="B120" s="26"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="21" t="s">
+      <c r="E140" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" s="31"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="32"/>
+    </row>
+    <row r="141" spans="3:16">
+      <c r="C141" s="13"/>
+      <c r="D141" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="22"/>
-      <c r="S120" s="13"/>
-      <c r="T120" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="18"/>
-      <c r="AA120" s="18"/>
-      <c r="AB120" s="18"/>
-      <c r="AC120" s="18"/>
-      <c r="AD120" s="18"/>
-      <c r="AE120" s="22"/>
-      <c r="AI120" s="13"/>
-      <c r="AJ120" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL120" s="18"/>
-      <c r="AM120" s="18"/>
-      <c r="AN120" s="18"/>
-      <c r="AO120" s="18"/>
-      <c r="AP120" s="18"/>
-      <c r="AQ120" s="18"/>
-      <c r="AR120" s="18"/>
-      <c r="AS120" s="18"/>
-      <c r="AT120" s="18"/>
-      <c r="AU120" s="22"/>
-    </row>
-    <row r="121" spans="2:47">
-      <c r="B121" s="26"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="21" t="s">
+      <c r="E141" s="18"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="32"/>
+    </row>
+    <row r="142" spans="3:16">
+      <c r="C142" s="13"/>
+      <c r="D142" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="22"/>
-      <c r="S121" s="13"/>
-      <c r="T121" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="U121" s="14"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="18"/>
-      <c r="AA121" s="18"/>
-      <c r="AB121" s="18"/>
-      <c r="AC121" s="18"/>
-      <c r="AD121" s="18"/>
-      <c r="AE121" s="22"/>
-      <c r="AI121" s="13"/>
-      <c r="AJ121" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK121" s="14"/>
-      <c r="AL121" s="18"/>
-      <c r="AM121" s="18"/>
-      <c r="AN121" s="18"/>
-      <c r="AO121" s="18"/>
-      <c r="AP121" s="18"/>
-      <c r="AQ121" s="18"/>
-      <c r="AR121" s="18"/>
-      <c r="AS121" s="18"/>
-      <c r="AT121" s="18"/>
-      <c r="AU121" s="22"/>
-    </row>
-    <row r="122" spans="2:47">
-      <c r="B122" s="26"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="22"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="18"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="22"/>
-      <c r="AI122" s="5"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="1"/>
-      <c r="AL122" s="18"/>
-      <c r="AM122" s="18"/>
-      <c r="AN122" s="18"/>
-      <c r="AO122" s="18"/>
-      <c r="AP122" s="18"/>
-      <c r="AQ122" s="18"/>
-      <c r="AR122" s="18"/>
-      <c r="AS122" s="18"/>
-      <c r="AT122" s="18"/>
-      <c r="AU122" s="22"/>
-    </row>
-    <row r="123" spans="2:47" ht="66.75" thickBot="1">
-      <c r="B123" s="26"/>
-      <c r="C123" s="16" t="s">
+      <c r="E142" s="18"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="32"/>
+    </row>
+    <row r="143" spans="3:16">
+      <c r="C143" s="5"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="32"/>
+    </row>
+    <row r="144" spans="3:16" ht="17.25" thickBot="1">
+      <c r="C144" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D123" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="22"/>
-      <c r="S123" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T123" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="U123" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="18"/>
-      <c r="AA123" s="18"/>
-      <c r="AB123" s="18"/>
-      <c r="AC123" s="18"/>
-      <c r="AD123" s="18"/>
-      <c r="AE123" s="22"/>
-      <c r="AI123" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ123" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK123" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL123" s="18"/>
-      <c r="AM123" s="18"/>
-      <c r="AN123" s="18"/>
-      <c r="AO123" s="18"/>
-      <c r="AP123" s="18"/>
-      <c r="AQ123" s="18"/>
-      <c r="AR123" s="18"/>
-      <c r="AS123" s="18"/>
-      <c r="AT123" s="18"/>
-      <c r="AU123" s="22"/>
-    </row>
-    <row r="124" spans="2:47">
-      <c r="B124" s="26"/>
-      <c r="C124" s="13"/>
-      <c r="D124" t="s">
-        <v>68</v>
-      </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="22"/>
-      <c r="S124" s="13"/>
-      <c r="T124" t="s">
-        <v>68</v>
-      </c>
-      <c r="U124" s="14"/>
-      <c r="V124" s="18"/>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="18"/>
-      <c r="AA124" s="18"/>
-      <c r="AB124" s="18"/>
-      <c r="AC124" s="18"/>
-      <c r="AD124" s="18"/>
-      <c r="AE124" s="22"/>
-      <c r="AI124" s="13"/>
-      <c r="AJ124" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK124" s="14"/>
-      <c r="AL124" s="18"/>
-      <c r="AM124" s="18"/>
-      <c r="AN124" s="18"/>
-      <c r="AO124" s="18"/>
-      <c r="AP124" s="18"/>
-      <c r="AQ124" s="18"/>
-      <c r="AR124" s="18"/>
-      <c r="AS124" s="18"/>
-      <c r="AT124" s="18"/>
-      <c r="AU124" s="22"/>
-    </row>
-    <row r="125" spans="2:47">
-      <c r="B125" s="26"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="22"/>
-      <c r="S125" s="13"/>
-      <c r="T125" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="U125" s="14"/>
-      <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="18"/>
-      <c r="Z125" s="18"/>
-      <c r="AA125" s="18"/>
-      <c r="AB125" s="18"/>
-      <c r="AC125" s="18"/>
-      <c r="AD125" s="18"/>
-      <c r="AE125" s="22"/>
-      <c r="AI125" s="13"/>
-      <c r="AJ125" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK125" s="14"/>
-      <c r="AL125" s="18"/>
-      <c r="AM125" s="18"/>
-      <c r="AN125" s="18"/>
-      <c r="AO125" s="18"/>
-      <c r="AP125" s="18"/>
-      <c r="AQ125" s="18"/>
-      <c r="AR125" s="18"/>
-      <c r="AS125" s="18"/>
-      <c r="AT125" s="18"/>
-      <c r="AU125" s="22"/>
-    </row>
-    <row r="126" spans="2:47">
-      <c r="B126" s="26"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="22"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="U126" s="1"/>
-      <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="18"/>
-      <c r="Z126" s="18"/>
-      <c r="AA126" s="18"/>
-      <c r="AB126" s="18"/>
-      <c r="AC126" s="18"/>
-      <c r="AD126" s="18"/>
-      <c r="AE126" s="22"/>
-      <c r="AI126" s="5"/>
-      <c r="AJ126" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK126" s="1"/>
-      <c r="AL126" s="18"/>
-      <c r="AM126" s="18"/>
-      <c r="AN126" s="18"/>
-      <c r="AO126" s="18"/>
-      <c r="AP126" s="18"/>
-      <c r="AQ126" s="18"/>
-      <c r="AR126" s="18"/>
-      <c r="AS126" s="18"/>
-      <c r="AT126" s="18"/>
-      <c r="AU126" s="22"/>
-    </row>
-    <row r="127" spans="2:47">
-      <c r="B127" s="26"/>
-      <c r="C127" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="22"/>
-      <c r="S127" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T127" s="21"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="18"/>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18"/>
-      <c r="Y127" s="18"/>
-      <c r="Z127" s="18"/>
-      <c r="AA127" s="18"/>
-      <c r="AB127" s="18"/>
-      <c r="AC127" s="18"/>
-      <c r="AD127" s="18"/>
-      <c r="AE127" s="22"/>
-      <c r="AI127" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ127" s="21"/>
-      <c r="AK127" s="1"/>
-      <c r="AL127" s="18"/>
-      <c r="AM127" s="18"/>
-      <c r="AN127" s="18"/>
-      <c r="AO127" s="18"/>
-      <c r="AP127" s="18"/>
-      <c r="AQ127" s="18"/>
-      <c r="AR127" s="18"/>
-      <c r="AS127" s="18"/>
-      <c r="AT127" s="18"/>
-      <c r="AU127" s="22"/>
-    </row>
-    <row r="128" spans="2:47" ht="17.25" thickBot="1">
-      <c r="B128" s="26"/>
-      <c r="C128" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="25"/>
-      <c r="S128" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T128" s="23"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="24"/>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
-      <c r="Z128" s="24"/>
-      <c r="AA128" s="24"/>
-      <c r="AB128" s="24"/>
-      <c r="AC128" s="24"/>
-      <c r="AD128" s="24"/>
-      <c r="AE128" s="25"/>
-      <c r="AI128" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ128" s="23"/>
-      <c r="AK128" s="8"/>
-      <c r="AL128" s="24"/>
-      <c r="AM128" s="24"/>
-      <c r="AN128" s="24"/>
-      <c r="AO128" s="24"/>
-      <c r="AP128" s="24"/>
-      <c r="AQ128" s="24"/>
-      <c r="AR128" s="24"/>
-      <c r="AS128" s="24"/>
-      <c r="AT128" s="24"/>
-      <c r="AU128" s="25"/>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="26"/>
-    </row>
-    <row r="131" spans="2:16" ht="17.25" thickBot="1"/>
-    <row r="132" spans="2:16">
-      <c r="C132" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M132" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N132" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O132" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P132" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="C133" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" s="14" t="s">
+      <c r="D144" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P133" s="15"/>
-    </row>
-    <row r="134" spans="2:16">
-      <c r="C134" s="13"/>
-      <c r="D134" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="15"/>
-    </row>
-    <row r="135" spans="2:16">
-      <c r="C135" s="13"/>
-      <c r="D135" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="15"/>
-    </row>
-    <row r="136" spans="2:16">
-      <c r="C136" s="5"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="6"/>
-    </row>
-    <row r="137" spans="2:16" ht="33.75" thickBot="1">
-      <c r="C137" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J137" s="14"/>
-      <c r="K137" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L137" s="14"/>
-      <c r="M137" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N137" s="14"/>
-      <c r="O137" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P137" s="15"/>
-    </row>
-    <row r="138" spans="2:16">
-      <c r="C138" s="13"/>
-      <c r="D138" s="14" t="s">
+      <c r="F144" s="31"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="32"/>
+    </row>
+    <row r="145" spans="3:15">
+      <c r="C145" s="13"/>
+      <c r="D145" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="14"/>
-      <c r="O138" s="14"/>
-      <c r="P138" s="15"/>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="C139" s="13"/>
-      <c r="D139" s="14" t="s">
+      <c r="E145" s="18"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="32"/>
+    </row>
+    <row r="146" spans="3:15">
+      <c r="C146" s="13"/>
+      <c r="D146" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="15"/>
-    </row>
-    <row r="140" spans="2:16">
-      <c r="C140" s="5"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="6"/>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="C141" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="6"/>
-    </row>
-    <row r="142" spans="2:16" ht="17.25" thickBot="1">
-      <c r="C142" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="9"/>
-    </row>
-    <row r="144" spans="2:16" ht="17.25" thickBot="1"/>
-    <row r="145" spans="3:15">
-      <c r="C145" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I145" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J145" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K145" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L145" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M145" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N145" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O145" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="3:15">
-      <c r="C146" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="31"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
@@ -5921,15 +5465,13 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="22"/>
+      <c r="O146" s="32"/>
     </row>
     <row r="147" spans="3:15">
-      <c r="C147" s="13"/>
-      <c r="D147" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="20"/>
       <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
@@ -5938,15 +5480,15 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="22"/>
+      <c r="O147" s="32"/>
     </row>
     <row r="148" spans="3:15">
-      <c r="C148" s="13"/>
-      <c r="D148" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="C148" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="20"/>
       <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
+      <c r="F148" s="31"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
@@ -5955,68 +5497,78 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="22"/>
-    </row>
-    <row r="149" spans="3:15">
-      <c r="C149" s="5"/>
+      <c r="O148" s="32"/>
+    </row>
+    <row r="149" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C149" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D149" s="21"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="22"/>
-    </row>
-    <row r="150" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C150" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="21" t="s">
+      <c r="E149" s="22"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="35"/>
+    </row>
+    <row r="150" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="151" spans="3:15" ht="33">
+      <c r="C151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E150" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="22"/>
-    </row>
-    <row r="151" spans="3:15">
-      <c r="C151" s="13"/>
-      <c r="D151" t="s">
+      <c r="G151" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="22"/>
+      <c r="H151" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I151" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J151" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K151" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L151" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M151" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N151" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O151" s="30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="152" spans="3:15">
-      <c r="C152" s="13"/>
-      <c r="D152" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
+      <c r="C152" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="31"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
@@ -6025,15 +5577,15 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="22"/>
+      <c r="O152" s="32"/>
     </row>
     <row r="153" spans="3:15">
-      <c r="C153" s="5"/>
-      <c r="D153" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
@@ -6042,15 +5594,15 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="22"/>
+      <c r="O153" s="32"/>
     </row>
     <row r="154" spans="3:15">
-      <c r="C154" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="21"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="31"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
@@ -6059,78 +5611,68 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="22"/>
-    </row>
-    <row r="155" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C155" s="7" t="s">
+      <c r="O154" s="32"/>
+    </row>
+    <row r="155" spans="3:15">
+      <c r="C155" s="5"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+      <c r="O155" s="32"/>
+    </row>
+    <row r="156" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C156" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="24"/>
-      <c r="M155" s="24"/>
-      <c r="N155" s="24"/>
-      <c r="O155" s="25"/>
-    </row>
-    <row r="156" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D156" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="31"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+      <c r="O156" s="32"/>
+    </row>
     <row r="157" spans="3:15">
-      <c r="C157" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I157" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J157" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K157" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L157" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M157" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N157" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O157" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157" s="14"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
+      <c r="O157" s="32"/>
     </row>
     <row r="158" spans="3:15">
-      <c r="C158" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="18"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="14"/>
+      <c r="F158" s="31"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
@@ -6139,15 +5681,13 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="22"/>
+      <c r="O158" s="32"/>
     </row>
     <row r="159" spans="3:15">
-      <c r="C159" s="13"/>
-      <c r="D159" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" s="14"/>
-      <c r="F159" s="18"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="31"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
@@ -6156,15 +5696,15 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="22"/>
+      <c r="O159" s="32"/>
     </row>
     <row r="160" spans="3:15">
-      <c r="C160" s="13"/>
-      <c r="D160" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="18"/>
+      <c r="C160" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="20"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="31"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
       <c r="I160" s="18"/>
@@ -6173,68 +5713,78 @@
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
-      <c r="O160" s="22"/>
-    </row>
-    <row r="161" spans="3:15">
-      <c r="C161" s="5"/>
+      <c r="O160" s="32"/>
+    </row>
+    <row r="161" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C161" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D161" s="21"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="22"/>
-    </row>
-    <row r="162" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C162" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" s="21" t="s">
+      <c r="E161" s="8"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="34"/>
+      <c r="M161" s="34"/>
+      <c r="N161" s="34"/>
+      <c r="O161" s="35"/>
+    </row>
+    <row r="162" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="163" spans="3:15" ht="33">
+      <c r="C163" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="22"/>
-    </row>
-    <row r="163" spans="3:15">
-      <c r="C163" s="13"/>
-      <c r="D163" t="s">
+      <c r="G163" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E163" s="14"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="22"/>
+      <c r="H163" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I163" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J163" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K163" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L163" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M163" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N163" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O163" s="30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="164" spans="3:15">
-      <c r="C164" s="13"/>
-      <c r="D164" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E164" s="14"/>
-      <c r="F164" s="18"/>
+      <c r="C164" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" s="31"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
@@ -6243,15 +5793,15 @@
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
-      <c r="O164" s="22"/>
+      <c r="O164" s="32"/>
     </row>
     <row r="165" spans="3:15">
-      <c r="C165" s="5"/>
-      <c r="D165" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="18"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="14"/>
+      <c r="F165" s="31"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
@@ -6260,15 +5810,15 @@
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
-      <c r="O165" s="22"/>
+      <c r="O165" s="32"/>
     </row>
     <row r="166" spans="3:15">
-      <c r="C166" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" s="21"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="18"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="14"/>
+      <c r="F166" s="31"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
@@ -6277,78 +5827,68 @@
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
       <c r="N166" s="18"/>
-      <c r="O166" s="22"/>
-    </row>
-    <row r="167" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C167" s="7" t="s">
+      <c r="O166" s="32"/>
+    </row>
+    <row r="167" spans="3:15">
+      <c r="C167" s="5"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="32"/>
+    </row>
+    <row r="168" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C168" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D167" s="23"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="25"/>
-    </row>
-    <row r="168" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D168" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F168" s="31"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
+      <c r="O168" s="32"/>
+    </row>
     <row r="169" spans="3:15">
-      <c r="C169" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F169" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I169" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J169" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K169" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L169" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M169" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N169" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O169" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" s="14"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="32"/>
     </row>
     <row r="170" spans="3:15">
-      <c r="C170" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D170" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" s="18"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E170" s="14"/>
+      <c r="F170" s="31"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
@@ -6357,15 +5897,13 @@
       <c r="L170" s="18"/>
       <c r="M170" s="18"/>
       <c r="N170" s="18"/>
-      <c r="O170" s="22"/>
+      <c r="O170" s="32"/>
     </row>
     <row r="171" spans="3:15">
-      <c r="C171" s="13"/>
-      <c r="D171" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E171" s="14"/>
-      <c r="F171" s="18"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="31"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -6374,15 +5912,15 @@
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
       <c r="N171" s="18"/>
-      <c r="O171" s="22"/>
+      <c r="O171" s="32"/>
     </row>
     <row r="172" spans="3:15">
-      <c r="C172" s="13"/>
-      <c r="D172" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172" s="14"/>
-      <c r="F172" s="18"/>
+      <c r="C172" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="20"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="31"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
@@ -6391,68 +5929,78 @@
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
       <c r="N172" s="18"/>
-      <c r="O172" s="22"/>
-    </row>
-    <row r="173" spans="3:15">
-      <c r="C173" s="5"/>
+      <c r="O172" s="32"/>
+    </row>
+    <row r="173" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C173" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D173" s="21"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="22"/>
-    </row>
-    <row r="174" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C174" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D174" s="21" t="s">
+      <c r="E173" s="12"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="34"/>
+      <c r="J173" s="34"/>
+      <c r="K173" s="34"/>
+      <c r="L173" s="34"/>
+      <c r="M173" s="34"/>
+      <c r="N173" s="34"/>
+      <c r="O173" s="35"/>
+    </row>
+    <row r="174" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="175" spans="3:15" ht="33">
+      <c r="C175" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E174" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="22"/>
-    </row>
-    <row r="175" spans="3:15">
-      <c r="C175" s="13"/>
-      <c r="D175" t="s">
+      <c r="G175" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E175" s="14"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="22"/>
+      <c r="H175" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J175" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K175" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L175" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M175" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N175" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O175" s="30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="176" spans="3:15">
-      <c r="C176" s="13"/>
-      <c r="D176" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E176" s="14"/>
-      <c r="F176" s="18"/>
+      <c r="C176" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="31"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
@@ -6461,15 +6009,15 @@
       <c r="L176" s="18"/>
       <c r="M176" s="18"/>
       <c r="N176" s="18"/>
-      <c r="O176" s="22"/>
+      <c r="O176" s="32"/>
     </row>
     <row r="177" spans="3:15">
-      <c r="C177" s="5"/>
-      <c r="D177" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E177" s="11"/>
-      <c r="F177" s="18"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="14"/>
+      <c r="F177" s="31"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
@@ -6478,15 +6026,15 @@
       <c r="L177" s="18"/>
       <c r="M177" s="18"/>
       <c r="N177" s="18"/>
-      <c r="O177" s="22"/>
+      <c r="O177" s="32"/>
     </row>
     <row r="178" spans="3:15">
-      <c r="C178" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="18"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="14"/>
+      <c r="F178" s="31"/>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
@@ -6495,78 +6043,68 @@
       <c r="L178" s="18"/>
       <c r="M178" s="18"/>
       <c r="N178" s="18"/>
-      <c r="O178" s="22"/>
-    </row>
-    <row r="179" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C179" s="7" t="s">
+      <c r="O178" s="32"/>
+    </row>
+    <row r="179" spans="3:15">
+      <c r="C179" s="5"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="32"/>
+    </row>
+    <row r="180" spans="3:15" ht="33.75" thickBot="1">
+      <c r="C180" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="24"/>
-      <c r="M179" s="24"/>
-      <c r="N179" s="24"/>
-      <c r="O179" s="25"/>
-    </row>
-    <row r="180" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D180" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180" s="31"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="32"/>
+    </row>
     <row r="181" spans="3:15">
-      <c r="C181" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I181" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J181" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K181" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L181" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M181" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N181" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O181" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E181" s="14"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="32"/>
     </row>
     <row r="182" spans="3:15">
-      <c r="C182" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="18"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E182" s="14"/>
+      <c r="F182" s="31"/>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
       <c r="I182" s="18"/>
@@ -6575,15 +6113,13 @@
       <c r="L182" s="18"/>
       <c r="M182" s="18"/>
       <c r="N182" s="18"/>
-      <c r="O182" s="22"/>
+      <c r="O182" s="32"/>
     </row>
     <row r="183" spans="3:15">
-      <c r="C183" s="13"/>
-      <c r="D183" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E183" s="14"/>
-      <c r="F183" s="18"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="31"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -6592,15 +6128,15 @@
       <c r="L183" s="18"/>
       <c r="M183" s="18"/>
       <c r="N183" s="18"/>
-      <c r="O183" s="22"/>
+      <c r="O183" s="32"/>
     </row>
     <row r="184" spans="3:15">
-      <c r="C184" s="13"/>
-      <c r="D184" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E184" s="14"/>
-      <c r="F184" s="18"/>
+      <c r="C184" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="20"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="31"/>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
@@ -6609,68 +6145,78 @@
       <c r="L184" s="18"/>
       <c r="M184" s="18"/>
       <c r="N184" s="18"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" spans="3:15">
-      <c r="C185" s="5"/>
+      <c r="O184" s="32"/>
+    </row>
+    <row r="185" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C185" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D185" s="21"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="22"/>
-    </row>
-    <row r="186" spans="3:15" ht="33.75" thickBot="1">
-      <c r="C186" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D186" s="21" t="s">
+      <c r="E185" s="12"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
+      <c r="L185" s="34"/>
+      <c r="M185" s="34"/>
+      <c r="N185" s="34"/>
+      <c r="O185" s="35"/>
+    </row>
+    <row r="186" spans="3:15" ht="17.25" thickBot="1"/>
+    <row r="187" spans="3:15" ht="33">
+      <c r="C187" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F187" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E186" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" spans="3:15">
-      <c r="C187" s="13"/>
-      <c r="D187" t="s">
+      <c r="G187" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E187" s="14"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="18"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="22"/>
+      <c r="H187" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I187" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J187" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K187" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L187" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M187" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N187" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O187" s="30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="188" spans="3:15">
-      <c r="C188" s="13"/>
-      <c r="D188" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E188" s="14"/>
-      <c r="F188" s="18"/>
+      <c r="C188" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F188" s="31"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
@@ -6679,15 +6225,15 @@
       <c r="L188" s="18"/>
       <c r="M188" s="18"/>
       <c r="N188" s="18"/>
-      <c r="O188" s="22"/>
+      <c r="O188" s="32"/>
     </row>
     <row r="189" spans="3:15">
-      <c r="C189" s="5"/>
-      <c r="D189" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E189" s="11"/>
-      <c r="F189" s="18"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="14"/>
+      <c r="F189" s="31"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
@@ -6696,15 +6242,15 @@
       <c r="L189" s="18"/>
       <c r="M189" s="18"/>
       <c r="N189" s="18"/>
-      <c r="O189" s="22"/>
+      <c r="O189" s="32"/>
     </row>
     <row r="190" spans="3:15">
-      <c r="C190" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D190" s="21"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="18"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="14"/>
+      <c r="F190" s="31"/>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
       <c r="I190" s="18"/>
@@ -6713,78 +6259,68 @@
       <c r="L190" s="18"/>
       <c r="M190" s="18"/>
       <c r="N190" s="18"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C191" s="7" t="s">
+      <c r="O190" s="32"/>
+    </row>
+    <row r="191" spans="3:15">
+      <c r="C191" s="5"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="18"/>
+      <c r="O191" s="32"/>
+    </row>
+    <row r="192" spans="3:15" ht="33.75" thickBot="1">
+      <c r="C192" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D191" s="23"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="24"/>
-      <c r="L191" s="24"/>
-      <c r="M191" s="24"/>
-      <c r="N191" s="24"/>
-      <c r="O191" s="25"/>
-    </row>
-    <row r="192" spans="3:15" ht="17.25" thickBot="1"/>
+      <c r="D192" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F192" s="31"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
+      <c r="O192" s="32"/>
+    </row>
     <row r="193" spans="3:15">
-      <c r="C193" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F193" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I193" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J193" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K193" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L193" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M193" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N193" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O193" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E193" s="14"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="18"/>
+      <c r="O193" s="32"/>
     </row>
     <row r="194" spans="3:15">
-      <c r="C194" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F194" s="18"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E194" s="14"/>
+      <c r="F194" s="31"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
@@ -6793,15 +6329,13 @@
       <c r="L194" s="18"/>
       <c r="M194" s="18"/>
       <c r="N194" s="18"/>
-      <c r="O194" s="22"/>
+      <c r="O194" s="32"/>
     </row>
     <row r="195" spans="3:15">
-      <c r="C195" s="13"/>
-      <c r="D195" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E195" s="14"/>
-      <c r="F195" s="18"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="31"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
       <c r="I195" s="18"/>
@@ -6810,15 +6344,15 @@
       <c r="L195" s="18"/>
       <c r="M195" s="18"/>
       <c r="N195" s="18"/>
-      <c r="O195" s="22"/>
+      <c r="O195" s="32"/>
     </row>
     <row r="196" spans="3:15">
-      <c r="C196" s="13"/>
-      <c r="D196" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" s="14"/>
-      <c r="F196" s="18"/>
+      <c r="C196" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" s="20"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="31"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
       <c r="I196" s="18"/>
@@ -6827,345 +6361,24 @@
       <c r="L196" s="18"/>
       <c r="M196" s="18"/>
       <c r="N196" s="18"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" spans="3:15">
-      <c r="C197" s="5"/>
+      <c r="O196" s="32"/>
+    </row>
+    <row r="197" spans="3:15" ht="17.25" thickBot="1">
+      <c r="C197" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D197" s="21"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="22"/>
-    </row>
-    <row r="198" spans="3:15" ht="33.75" thickBot="1">
-      <c r="C198" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E198" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="22"/>
-    </row>
-    <row r="199" spans="3:15">
-      <c r="C199" s="13"/>
-      <c r="D199" t="s">
-        <v>68</v>
-      </c>
-      <c r="E199" s="14"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="22"/>
-    </row>
-    <row r="200" spans="3:15">
-      <c r="C200" s="13"/>
-      <c r="D200" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E200" s="14"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="22"/>
-    </row>
-    <row r="201" spans="3:15">
-      <c r="C201" s="5"/>
-      <c r="D201" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="22"/>
-    </row>
-    <row r="202" spans="3:15">
-      <c r="C202" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D202" s="21"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="22"/>
-    </row>
-    <row r="203" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C203" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D203" s="23"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="24"/>
-      <c r="I203" s="24"/>
-      <c r="J203" s="24"/>
-      <c r="K203" s="24"/>
-      <c r="L203" s="24"/>
-      <c r="M203" s="24"/>
-      <c r="N203" s="24"/>
-      <c r="O203" s="25"/>
-    </row>
-    <row r="204" spans="3:15" ht="17.25" thickBot="1"/>
-    <row r="205" spans="3:15">
-      <c r="C205" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F205" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H205" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I205" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J205" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K205" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L205" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M205" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N205" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O205" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="3:15">
-      <c r="C206" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="18"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="22"/>
-    </row>
-    <row r="207" spans="3:15">
-      <c r="C207" s="13"/>
-      <c r="D207" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="18"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="18"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="18"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="22"/>
-    </row>
-    <row r="208" spans="3:15">
-      <c r="C208" s="13"/>
-      <c r="D208" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E208" s="14"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
-      <c r="I208" s="18"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="18"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="18"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="22"/>
-    </row>
-    <row r="209" spans="3:15">
-      <c r="C209" s="5"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="18"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="18"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="22"/>
-    </row>
-    <row r="210" spans="3:15" ht="33.75" thickBot="1">
-      <c r="C210" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E210" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
-      <c r="I210" s="18"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="18"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="18"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="22"/>
-    </row>
-    <row r="211" spans="3:15">
-      <c r="C211" s="13"/>
-      <c r="D211" t="s">
-        <v>68</v>
-      </c>
-      <c r="E211" s="14"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="18"/>
-      <c r="J211" s="18"/>
-      <c r="K211" s="18"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="18"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="22"/>
-    </row>
-    <row r="212" spans="3:15">
-      <c r="C212" s="13"/>
-      <c r="D212" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E212" s="14"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
-      <c r="I212" s="18"/>
-      <c r="J212" s="18"/>
-      <c r="K212" s="18"/>
-      <c r="L212" s="18"/>
-      <c r="M212" s="18"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="22"/>
-    </row>
-    <row r="213" spans="3:15">
-      <c r="C213" s="5"/>
-      <c r="D213" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="18"/>
-      <c r="J213" s="18"/>
-      <c r="K213" s="18"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="18"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="22"/>
-    </row>
-    <row r="214" spans="3:15">
-      <c r="C214" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D214" s="21"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="18"/>
-      <c r="J214" s="18"/>
-      <c r="K214" s="18"/>
-      <c r="L214" s="18"/>
-      <c r="M214" s="18"/>
-      <c r="N214" s="18"/>
-      <c r="O214" s="22"/>
-    </row>
-    <row r="215" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C215" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D215" s="23"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="24"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="24"/>
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="24"/>
-      <c r="L215" s="24"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="24"/>
-      <c r="O215" s="25"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
+      <c r="L197" s="34"/>
+      <c r="M197" s="34"/>
+      <c r="N197" s="34"/>
+      <c r="O197" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
